--- a/Simulation results.xlsx
+++ b/Simulation results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817253B5-D378-409C-AF36-57B7E1945F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B1C420-4E87-4722-8493-472862D00724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,888 +181,904 @@
 </t>
   </si>
   <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93112
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31921
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32198
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0253914
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0255418
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0256239
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0262495
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0263035
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0263919
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0272086
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0270897
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.027224
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0273937
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186018
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186589
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187226
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189637
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.190638
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191345
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193934
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194749
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195707
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340569
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341532
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341488
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343018
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347499
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348414
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349326
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350984
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477739
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486723
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.488402
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.490113
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499595
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50136
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.603967
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.635694
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.638645
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0126548
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0126774
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0128759
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0131499
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0131932
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0133183
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0136312
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0136624
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0137981
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.013848
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13084
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131046
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131383
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131936
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136661
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137225
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137399
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137964
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.275382
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27593
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.276654
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.282469
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.283182
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.284017
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.289972
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.290692
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.291307
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477533
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492278
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.493511
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494981
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511394
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511927
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.821758
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859967
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861649
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904644
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00394612
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00403426
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00405559
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00413675
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0042112
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00424566
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00428866
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0819427
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0821318
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0823101
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.082768
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0844144
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0845567
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0848663
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0852498
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0868241
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0871533
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0874457
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0877977
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254518
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254857
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255078
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255578
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.263199
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.263634
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.263867
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264259
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.272385
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.272693
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273152
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273853
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.615771
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640514
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641727
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.643583
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.671485
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.673519
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55477
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67524
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68108
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82675
+</t>
+  </si>
+  <si>
+    <t>u/t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77342
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.475934
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477648
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.614588
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93327
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.603954
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820285
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5534
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85895
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500797
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.510706
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672266
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9267
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.600901
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817492
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55528
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33335
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84909
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68467
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83021
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18649
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.190433
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194467
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.274682
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.282037
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.288748
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32633
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619432
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861393
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68095
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861498
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502366
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512174
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.674066
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83518
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.635958
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902803
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82654
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0262152
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0131237
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00392313
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.025394
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0126016
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00369552
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770871
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.475688
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476404
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.612306
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771884
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.475456
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476401
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.613479
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814978
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.488293
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.493366
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642488
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92849
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601843
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817629
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55316
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84319
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636818
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905469
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82895
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.620574
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863891
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">0.859824
 </t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93112
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31921
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32198
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905785
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">3.84213
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0253914
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0255418
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0256239
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0262495
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0263035
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0263919
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0272086
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0270897
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.027224
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0273937
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186018
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186589
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187226
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189637
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190638
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191345
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193934
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194749
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195707
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340569
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341532
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341488
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343018
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347499
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348414
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349326
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350984
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">0.3559
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">0.356636
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">0.357105
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">0.358147
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477739
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486723
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.488402
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.490113
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499595
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50136
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.603967
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133778
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134083
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134471
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13486
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00375374
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00379323
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0038943
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">0.617617
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">0.619418
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.635694
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638645
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0126548
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0126774
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0128759
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0131499
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0131932
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0133183
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0136312
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0136624
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0137981
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.013848
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13084
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131046
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131383
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131936
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133778
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134083
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134471
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13486
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136661
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137225
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137399
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137964
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.275382
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27593
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.276654
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.282469
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.283182
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.284017
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.289972
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.290692
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.291307
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477533
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492278
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493511
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494981
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511394
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511927
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.821758
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859967
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861649
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904644
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905785
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00375374
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00379323
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0038943
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00394612
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00403426
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00405559
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00413675
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0042112
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00424566
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00428866
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0819427
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0821318
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0823101
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.082768
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0844144
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0845567
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0848663
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0852498
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0868241
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0871533
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0874457
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0877977
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254518
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254857
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255078
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255578
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.263199
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.263634
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.263867
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264259
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.272385
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.272693
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273152
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273853
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615771
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640514
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641727
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.643583
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671485
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.673519
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55477
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67524
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68108
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82675
-</t>
-  </si>
-  <si>
-    <t>tl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u/t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pick_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A_f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77342
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.475934
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477648
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.614588
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93327
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.603954
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820285
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5534
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85895
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500797
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.510706
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672266
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9267
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600901
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817492
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55528
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33335
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84909
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68467
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83021
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18649
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190433
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194467
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.274682
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.282037
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.288748
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32633
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619432
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861393
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68095
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861498
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502366
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512174
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.674066
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83518
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.635958
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902803
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82654
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0262152
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0131237
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00392313
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.025394
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0126016
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00369552
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770871
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.475688
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476404
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.612306
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771884
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.475456
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476401
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.613479
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814978
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.488293
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493366
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642488
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92849
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601843
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817629
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55316
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84319
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636818
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905469
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82895
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.620574
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863891
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,7 +1441,7 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A237" sqref="A237"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1435,19 +1451,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2076,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2093,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2110,7 +2126,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2178,7 +2194,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2229,10 +2245,10 @@
         <v>5</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2245,8 +2261,8 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
-        <v>42</v>
+      <c r="E48" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2263,7 +2279,7 @@
         <v>7</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2271,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2280,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2288,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -2297,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2305,16 +2321,16 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
         <v>43</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2322,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -2331,7 +2347,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2339,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -2348,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2356,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -2365,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2373,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -2382,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2390,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -2399,7 +2415,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2407,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -2416,15 +2432,15 @@
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -2432,8 +2448,8 @@
       <c r="D59" t="s">
         <v>5</v>
       </c>
-      <c r="E59" t="s">
-        <v>47</v>
+      <c r="E59" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2441,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -2450,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2458,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -2467,7 +2483,7 @@
         <v>7</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2484,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2501,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2518,7 +2534,7 @@
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2535,7 +2551,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2552,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2569,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2586,7 +2602,7 @@
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2603,7 +2619,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2620,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2637,7 +2653,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2654,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2671,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2688,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2705,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2722,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2739,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2756,7 +2772,7 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2773,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2790,7 +2806,7 @@
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2807,7 +2823,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2824,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2841,7 +2857,7 @@
         <v>5</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2858,7 +2874,7 @@
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2875,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2892,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2909,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2926,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2943,7 +2959,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2960,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2977,7 +2993,7 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2994,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3011,10 +3027,10 @@
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3027,11 +3043,11 @@
       <c r="D94" t="s">
         <v>3</v>
       </c>
-      <c r="E94" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E94" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -3044,11 +3060,11 @@
       <c r="D95" t="s">
         <v>5</v>
       </c>
-      <c r="E95" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E95" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -3061,11 +3077,11 @@
       <c r="D96" t="s">
         <v>6</v>
       </c>
-      <c r="E96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E96" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -3078,8 +3094,8 @@
       <c r="D97" t="s">
         <v>7</v>
       </c>
-      <c r="E97" t="s">
-        <v>78</v>
+      <c r="E97" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3096,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3113,7 +3129,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3130,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3147,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3164,7 +3180,7 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3181,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3198,7 +3214,7 @@
         <v>6</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3215,7 +3231,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3232,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3249,7 +3265,7 @@
         <v>5</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3266,7 +3282,7 @@
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3283,7 +3299,7 @@
         <v>7</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3291,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -3300,7 +3316,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3308,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -3317,7 +3333,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3325,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -3334,7 +3350,7 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3342,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -3351,15 +3367,15 @@
         <v>7</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -3367,16 +3383,16 @@
       <c r="D114" t="s">
         <v>3</v>
       </c>
-      <c r="E114" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -3384,8 +3400,8 @@
       <c r="D115" t="s">
         <v>5</v>
       </c>
-      <c r="E115" t="s">
-        <v>87</v>
+      <c r="E115" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3393,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -3402,7 +3418,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3410,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
@@ -3419,7 +3435,7 @@
         <v>7</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3427,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -3436,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3444,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -3453,7 +3469,7 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3461,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -3470,7 +3486,7 @@
         <v>6</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3478,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -3487,7 +3503,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3504,7 +3520,7 @@
         <v>3</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3521,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3538,7 +3554,7 @@
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3555,7 +3571,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3572,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3589,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3606,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3623,7 +3639,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3640,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3657,7 +3673,7 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3674,7 +3690,7 @@
         <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3691,7 +3707,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3708,7 +3724,7 @@
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3725,7 +3741,7 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3742,7 +3758,7 @@
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3759,10 +3775,10 @@
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -3775,11 +3791,11 @@
       <c r="D138" t="s">
         <v>3</v>
       </c>
-      <c r="E138" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E138" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -3792,11 +3808,11 @@
       <c r="D139" t="s">
         <v>5</v>
       </c>
-      <c r="E139" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E139" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3809,11 +3825,11 @@
       <c r="D140" t="s">
         <v>6</v>
       </c>
-      <c r="E140" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E140" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -3826,8 +3842,8 @@
       <c r="D141" t="s">
         <v>7</v>
       </c>
-      <c r="E141" t="s">
-        <v>107</v>
+      <c r="E141" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3844,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3861,7 +3877,7 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3878,7 +3894,7 @@
         <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3895,7 +3911,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3912,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3929,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -3946,7 +3962,7 @@
         <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3963,7 +3979,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3980,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3997,7 +4013,7 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -4014,7 +4030,7 @@
         <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -4031,7 +4047,7 @@
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4048,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -4065,7 +4081,7 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -4082,7 +4098,7 @@
         <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -4099,7 +4115,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4116,7 +4132,7 @@
         <v>3</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4133,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4150,7 +4166,7 @@
         <v>6</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -4167,7 +4183,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4184,7 +4200,7 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -4201,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4218,7 +4234,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -4235,7 +4251,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -4252,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4269,7 +4285,7 @@
         <v>5</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -4286,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="E168" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4303,7 +4319,7 @@
         <v>7</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4311,7 +4327,7 @@
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -4320,7 +4336,7 @@
         <v>3</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4328,7 +4344,7 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -4337,7 +4353,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -4345,7 +4361,7 @@
         <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -4354,7 +4370,7 @@
         <v>6</v>
       </c>
       <c r="E172" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4362,7 +4378,7 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -4371,7 +4387,7 @@
         <v>7</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -4379,7 +4395,7 @@
         <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
@@ -4388,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -4396,7 +4412,7 @@
         <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C175" t="s">
         <v>8</v>
@@ -4405,7 +4421,7 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4413,7 +4429,7 @@
         <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C176" t="s">
         <v>8</v>
@@ -4422,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4430,7 +4446,7 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C177" t="s">
         <v>8</v>
@@ -4439,7 +4455,7 @@
         <v>7</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4447,7 +4463,7 @@
         <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
@@ -4456,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -4464,7 +4480,7 @@
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -4473,7 +4489,7 @@
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4481,7 +4497,7 @@
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -4490,15 +4506,15 @@
         <v>6</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -4506,8 +4522,8 @@
       <c r="D181" t="s">
         <v>7</v>
       </c>
-      <c r="E181" t="s">
-        <v>131</v>
+      <c r="E181" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4524,10 +4540,10 @@
         <v>3</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -4540,11 +4556,11 @@
       <c r="D183" t="s">
         <v>5</v>
       </c>
-      <c r="E183" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -4557,11 +4573,11 @@
       <c r="D184" t="s">
         <v>6</v>
       </c>
-      <c r="E184" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -4574,8 +4590,8 @@
       <c r="D185" t="s">
         <v>7</v>
       </c>
-      <c r="E185" t="s">
-        <v>134</v>
+      <c r="E185" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4592,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -4609,7 +4625,7 @@
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -4626,7 +4642,7 @@
         <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -4643,7 +4659,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -4660,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -4677,7 +4693,7 @@
         <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -4694,7 +4710,7 @@
         <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -4711,7 +4727,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -4728,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -4745,7 +4761,7 @@
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -4762,7 +4778,7 @@
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -4779,7 +4795,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -4796,7 +4812,7 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -4813,7 +4829,7 @@
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -4830,7 +4846,7 @@
         <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -4847,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -4864,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -4881,7 +4897,7 @@
         <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -4898,7 +4914,7 @@
         <v>6</v>
       </c>
       <c r="E204" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -4915,7 +4931,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -4932,7 +4948,7 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -4949,7 +4965,7 @@
         <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -4966,7 +4982,7 @@
         <v>6</v>
       </c>
       <c r="E208" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -4983,7 +4999,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -5000,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -5017,7 +5033,7 @@
         <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -5034,7 +5050,7 @@
         <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -5051,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -5068,7 +5084,7 @@
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -5085,7 +5101,7 @@
         <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -5102,7 +5118,7 @@
         <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -5119,7 +5135,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5136,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5153,7 +5169,7 @@
         <v>5</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5170,7 +5186,7 @@
         <v>6</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -5187,7 +5203,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -5204,7 +5220,7 @@
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -5221,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5238,7 +5254,7 @@
         <v>6</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -5255,7 +5271,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -5272,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5289,7 +5305,7 @@
         <v>5</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -5306,7 +5322,7 @@
         <v>6</v>
       </c>
       <c r="E228" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5323,7 +5339,7 @@
         <v>7</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5331,7 +5347,7 @@
         <v>23</v>
       </c>
       <c r="B230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -5340,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5348,7 +5364,7 @@
         <v>23</v>
       </c>
       <c r="B231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
@@ -5357,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -5365,7 +5381,7 @@
         <v>23</v>
       </c>
       <c r="B232" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -5374,7 +5390,7 @@
         <v>6</v>
       </c>
       <c r="E232" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5382,7 +5398,7 @@
         <v>23</v>
       </c>
       <c r="B233" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -5391,7 +5407,7 @@
         <v>7</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -5399,7 +5415,7 @@
         <v>23</v>
       </c>
       <c r="B234" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C234" t="s">
         <v>8</v>
@@ -5408,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -5416,7 +5432,7 @@
         <v>23</v>
       </c>
       <c r="B235" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
@@ -5425,7 +5441,7 @@
         <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5433,7 +5449,7 @@
         <v>23</v>
       </c>
       <c r="B236" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -5442,7 +5458,7 @@
         <v>6</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5450,7 +5466,7 @@
         <v>23</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -5459,7 +5475,7 @@
         <v>7</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5467,7 +5483,7 @@
         <v>23</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
@@ -5476,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -5484,7 +5500,7 @@
         <v>23</v>
       </c>
       <c r="B239" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
@@ -5493,7 +5509,7 @@
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5501,7 +5517,7 @@
         <v>23</v>
       </c>
       <c r="B240" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
@@ -5510,7 +5526,7 @@
         <v>6</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5518,7 +5534,7 @@
         <v>23</v>
       </c>
       <c r="B241" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -5527,7 +5543,7 @@
         <v>7</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Simulation results.xlsx
+++ b/Simulation results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B1C420-4E87-4722-8493-472862D00724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93B6725-310F-42DD-BC72-659ABC0E50F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="242">
   <si>
     <t>-1%</t>
   </si>
@@ -652,18 +652,6 @@
 </t>
   </si>
   <si>
-    <t>u/t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A_f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">0.77342
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,14 +1059,6 @@
   <si>
     <t xml:space="preserve">0.619418
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,6 +1131,730 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146539</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>111371</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="214546" cy="281808"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文字方塊 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9258F6-A9E2-40EC-A1C3-92BF0358A076}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="146539" y="111371"/>
+              <a:ext cx="214546" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑙</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文字方塊 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9258F6-A9E2-40EC-A1C3-92BF0358A076}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="146539" y="111371"/>
+              <a:ext cx="214546" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡_𝑙</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64477</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400302" cy="281808"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文字方塊 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E24526-D457-4A3C-AE92-5E24F8F4D9A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="615462" y="117232"/>
+              <a:ext cx="400302" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文字方塊 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E24526-D457-4A3C-AE92-5E24F8F4D9A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="615462" y="117232"/>
+              <a:ext cx="400302" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>187571</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128955</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="167033" cy="281808"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文字方塊 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8AAF19-74B6-4F13-BA58-48EB2F4D9A86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1289540" y="128955"/>
+              <a:ext cx="167033" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑟</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文字方塊 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8AAF19-74B6-4F13-BA58-48EB2F4D9A86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1289540" y="128955"/>
+              <a:ext cx="167033" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑟</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23447</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140678</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="478849" cy="281808"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文字方塊 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6DFCBC-AD2B-4C8D-AA9C-F71AAE51FF1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1676401" y="140678"/>
+              <a:ext cx="478849" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文字方塊 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6DFCBC-AD2B-4C8D-AA9C-F71AAE51FF1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1676401" y="140678"/>
+              <a:ext cx="478849" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/𝑠</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205157</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123093</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299634" cy="299697"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文字方塊 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987097E6-307B-4BA0-B51A-74E3D9549C00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2409095" y="123093"/>
+              <a:ext cx="299634" cy="299697"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文字方塊 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987097E6-307B-4BA0-B51A-74E3D9549C00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2409095" y="123093"/>
+              <a:ext cx="299634" cy="299697"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴_𝑓</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1441,7 +2145,7 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1449,22 +2153,12 @@
     <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>162</v>
-      </c>
+    <row r="1" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2092,7 +2786,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2109,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2126,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2194,7 +2888,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2245,7 +2939,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2262,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2279,7 +2973,7 @@
         <v>7</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2296,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2313,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2347,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2398,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2415,7 +3109,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2432,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2449,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2466,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2483,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2500,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2568,7 +3262,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2721,7 +3415,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2789,7 +3483,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2857,7 +3551,7 @@
         <v>5</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3044,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3061,7 +3755,7 @@
         <v>5</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3078,7 +3772,7 @@
         <v>6</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3095,7 +3789,7 @@
         <v>7</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3112,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3129,7 +3823,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3146,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3214,7 +3908,7 @@
         <v>6</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3265,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3299,7 +3993,7 @@
         <v>7</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3316,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3333,7 +4027,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3367,7 +4061,7 @@
         <v>7</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3384,7 +4078,7 @@
         <v>3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3401,7 +4095,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3418,7 +4112,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3435,7 +4129,7 @@
         <v>7</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3452,7 +4146,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3486,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3520,7 +4214,7 @@
         <v>3</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3588,7 +4282,7 @@
         <v>3</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3792,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3809,7 +4503,7 @@
         <v>5</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3826,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3843,7 +4537,7 @@
         <v>7</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3928,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3996,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -4064,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -4132,7 +4826,7 @@
         <v>3</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4149,7 +4843,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4166,7 +4860,7 @@
         <v>6</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -4234,7 +4928,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -4285,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -4319,7 +5013,7 @@
         <v>7</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4336,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4353,7 +5047,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -4387,7 +5081,7 @@
         <v>7</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -4438,7 +5132,7 @@
         <v>6</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4455,7 +5149,7 @@
         <v>7</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4472,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -4506,7 +5200,7 @@
         <v>6</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4523,7 +5217,7 @@
         <v>7</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4540,7 +5234,7 @@
         <v>3</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4557,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4574,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4591,7 +5285,7 @@
         <v>7</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4608,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -5152,7 +5846,7 @@
         <v>3</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5169,7 +5863,7 @@
         <v>5</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5186,7 +5880,7 @@
         <v>6</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -5254,7 +5948,7 @@
         <v>6</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -5305,7 +5999,7 @@
         <v>5</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -5339,7 +6033,7 @@
         <v>7</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5356,7 +6050,7 @@
         <v>3</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5373,7 +6067,7 @@
         <v>5</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -5407,7 +6101,7 @@
         <v>7</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -5458,7 +6152,7 @@
         <v>6</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5475,7 +6169,7 @@
         <v>7</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5492,7 +6186,7 @@
         <v>3</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -5526,7 +6220,7 @@
         <v>6</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5543,7 +6237,7 @@
         <v>7</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5551,5 +6245,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Simulation results.xlsx
+++ b/Simulation results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93B6725-310F-42DD-BC72-659ABC0E50F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1879334-BD1B-4208-8E04-4774227A7449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,8 +1143,8 @@
       <xdr:rowOff>111371</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214546" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
@@ -1226,7 +1226,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
@@ -1291,8 +1291,8 @@
       <xdr:rowOff>117232</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="400302" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
@@ -1367,7 +1367,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
@@ -1438,8 +1438,8 @@
       <xdr:rowOff>128955</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167033" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
@@ -1502,7 +1502,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
@@ -1567,8 +1567,8 @@
       <xdr:rowOff>140678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="478849" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
@@ -1643,7 +1643,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
@@ -1714,8 +1714,8 @@
       <xdr:rowOff>123093</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="299634" cy="299697"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文字方塊 5">
@@ -1797,7 +1797,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文字方塊 5">
@@ -1854,6 +1854,56 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82062</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2491154</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>537953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2836C072-19DE-45A4-B504-D3DC8CBC13F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3024554" y="0"/>
+          <a:ext cx="2409092" cy="537953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2145,12 +2195,13 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">

--- a/Simulation results.xlsx
+++ b/Simulation results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1879334-BD1B-4208-8E04-4774227A7449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC664B8-0586-4199-93A9-4DA242557F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1709,13 +1709,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>205157</xdr:colOff>
+      <xdr:colOff>216881</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123093</xdr:rowOff>
+      <xdr:rowOff>134816</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="299634" cy="299697"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="293074" cy="306174"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文字方塊 5">
@@ -1729,8 +1729,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2409095" y="123093"/>
-              <a:ext cx="299634" cy="299697"/>
+              <a:off x="2420819" y="134816"/>
+              <a:ext cx="293074" cy="306174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1752,7 +1752,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -1764,31 +1764,61 @@
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
-                      </m:sSubPr>
+                      </m:accPr>
                       <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐴</m:t>
-                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐴</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                       </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑓</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
+                    </m:acc>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -1797,7 +1827,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文字方塊 5">
@@ -1811,8 +1841,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2409095" y="123093"/>
-              <a:ext cx="299634" cy="299697"/>
+              <a:off x="2420819" y="134816"/>
+              <a:ext cx="293074" cy="306174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1834,7 +1864,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -1844,7 +1874,31 @@
                 <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>𝐴_𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ) ̅</a:t>
               </a:r>
               <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
             </a:p>
@@ -2195,7 +2249,7 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/Simulation results.xlsx
+++ b/Simulation results.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC664B8-0586-4199-93A9-4DA242557F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F0487E-852A-4B0C-B02E-174FC2D67892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$241</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -59,1014 +56,932 @@
     <t>30%</t>
   </si>
   <si>
-    <t xml:space="preserve">0.043367
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0434407
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0435879
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0438784
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0454686
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0456305
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0458518
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0459591
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.047777
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0478518
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0481366
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0481844
+    <t xml:space="preserve">0.0419065
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0424819
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0430509
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0437046
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0440689
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0446402
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0452518
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0458842
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0462927
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0469053
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0474904
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0482044
 </t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245952
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246495
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246665
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247168
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.256504
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.256925
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.257307
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.257776
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.267398
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.268231
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.268365
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.268976
+    <t xml:space="preserve">0.243486
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244936
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246561
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248123
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253926
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255535
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257127
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25886
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26509
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.266642
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.268327
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.270173
 </t>
   </si>
   <si>
     <t>70%</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773613
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.812737
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813286
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815423
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85864
+    <t xml:space="preserve">0.765938
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769602
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.773332
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.777333
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807388
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811041
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815366
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819325
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852445
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856364
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860675
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865301
 </t>
   </si>
   <si>
     <t>90%</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93112
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31921
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32198
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0253914
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0255418
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0256239
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0262495
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0263035
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0263919
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0272086
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0270897
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.027224
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0273937
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186018
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186589
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187226
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189637
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190638
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191345
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193934
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194749
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195707
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340569
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341532
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341488
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343018
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347499
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348414
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349326
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350984
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477739
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486723
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.488402
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.490113
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499595
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50136
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.603967
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.635694
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638645
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0126548
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0126774
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0128759
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0131499
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0131932
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0133183
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0136312
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0136624
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0137981
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.013848
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13084
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131046
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131383
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131936
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136661
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137225
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137399
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137964
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.275382
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27593
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.276654
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.282469
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.283182
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.284017
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.289972
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.290692
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.291307
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477533
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492278
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493511
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494981
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511394
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511927
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.821758
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859967
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861649
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904644
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00394612
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00403426
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00405559
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00413675
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0042112
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00424566
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00428866
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0819427
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0821318
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0823101
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.082768
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0844144
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0845567
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0848663
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0852498
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0868241
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0871533
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0874457
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0877977
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254518
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254857
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255078
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255578
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.263199
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.263634
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.263867
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264259
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.272385
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.272693
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273152
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273853
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615771
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640514
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641727
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.643583
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671485
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.673519
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55477
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67524
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68108
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82675
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77342
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.475934
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477648
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.614588
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93327
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.603954
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820285
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5534
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85895
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500797
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.510706
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672266
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9267
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600901
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817492
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55528
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33335
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84909
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68467
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83021
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18649
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190433
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194467
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.274682
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.282037
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.288748
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32633
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619432
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861393
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68095
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861498
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502366
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512174
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.674066
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83518
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.635958
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902803
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82654
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0262152
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0131237
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00392313
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.025394
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0126016
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00369552
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770871
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.475688
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476404
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.612306
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771884
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.475456
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476401
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.613479
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814978
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.488293
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493366
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642488
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92849
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601843
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817629
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55316
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84319
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636818
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905469
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82895
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.620574
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863891
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859824
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905785
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84213
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3559
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356636
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357105
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358147
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133778
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134083
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134471
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13486
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00375374
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00379323
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0038943
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.617617
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619418
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">2.90098
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91551
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92944
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94496
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29089
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30759
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32486
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34261
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80035
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81977
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84037
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86282
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0240958
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0243875
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0247756
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0252252
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.024895
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0251907
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0255773
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0260554
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0257054
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0260305
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.026418
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0269132
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179242
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18125
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183222
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185701
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183146
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185393
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187146
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189382
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187073
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189157
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191161
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193987
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331299
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333939
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336871
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340792
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338427
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342039
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344127
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347205
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346067
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349336
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351928
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356743
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.464185
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467497
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.470806
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476159
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4756
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.479789
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482307
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486037
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.487374
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491978
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494489
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.501096
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.588253
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.591872
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596067
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.602949
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.604487
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.609527
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.612495
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616738
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.621445
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.626594
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.630051
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637579
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0117492
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0119389
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0122049
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0125427
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0122234
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0124223
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0127111
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0130458
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0127022
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012931
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0132501
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0135595
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125509
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127025
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128622
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130521
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128326
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13001
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133281
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131273
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132856
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134501
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136674
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.267253
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.269462
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.272051
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.275288
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.274137
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.277
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.279018
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.281689
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.281456
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.284016
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.286397
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.290157
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.466332
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.469519
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.472909
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477905
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482537
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486643
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489248
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.493045
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499749
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.503832
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507193
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512803
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.805954
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810697
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815678
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823181
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846338
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852019
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856589
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861767
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890123
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896988
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900662
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908743
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00313646
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0033029
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00343572
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00360121
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00332842
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00347159
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00361924
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00380978
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0035216
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00367159
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00381756
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00402479
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0788018
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0796959
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0806793
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0818967
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0811172
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0821051
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0830945
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0842689
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0835678
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0845455
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0855825
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0868971
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249546
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2512
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253066
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255485
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.258186
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.260188
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261867
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264029
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.267406
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.269242
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271235
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273884
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.606342
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.609316
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.612571
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61717
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634436
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63756
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640951
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.644755
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.664577
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.668038
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.671497
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.676315
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53942
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54622
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5531
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56231
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66442
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67198
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67946
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68827
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.812
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82048
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82907
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8389
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,14 +993,6 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1110,12 +1017,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1138,19 +1041,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>146539</xdr:colOff>
+      <xdr:colOff>136187</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>111371</xdr:rowOff>
+      <xdr:rowOff>160274</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214546" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9258F6-A9E2-40EC-A1C3-92BF0358A076}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173A45FA-552A-4780-926D-11C030F6C0D8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1158,7 +1061,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="146539" y="111371"/>
+              <a:off x="136187" y="160274"/>
               <a:ext cx="214546" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1226,13 +1129,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9258F6-A9E2-40EC-A1C3-92BF0358A076}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173A45FA-552A-4780-926D-11C030F6C0D8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1240,7 +1143,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="146539" y="111371"/>
+              <a:off x="136187" y="160274"/>
               <a:ext cx="214546" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1286,19 +1189,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>64477</xdr:colOff>
+      <xdr:colOff>45416</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>117232</xdr:rowOff>
+      <xdr:rowOff>166135</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="400302" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E24526-D457-4A3C-AE92-5E24F8F4D9A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E1184E-B6E9-46E8-9244-0D626D796148}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1306,7 +1209,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="615462" y="117232"/>
+              <a:off x="593407" y="166135"/>
               <a:ext cx="400302" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1367,13 +1270,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E24526-D457-4A3C-AE92-5E24F8F4D9A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E1184E-B6E9-46E8-9244-0D626D796148}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1381,7 +1284,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="615462" y="117232"/>
+              <a:off x="593407" y="166135"/>
               <a:ext cx="400302" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1433,19 +1336,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>187571</xdr:colOff>
+      <xdr:colOff>155447</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>128955</xdr:rowOff>
+      <xdr:rowOff>182213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167033" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8AAF19-74B6-4F13-BA58-48EB2F4D9A86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18419369-3CE7-46CC-B990-F4E3BC930EDA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1453,7 +1356,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1289540" y="128955"/>
+              <a:off x="1251430" y="182213"/>
               <a:ext cx="167033" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1502,13 +1405,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8AAF19-74B6-4F13-BA58-48EB2F4D9A86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18419369-3CE7-46CC-B990-F4E3BC930EDA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1516,7 +1419,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1289540" y="128955"/>
+              <a:off x="1251430" y="182213"/>
               <a:ext cx="167033" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1562,19 +1465,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>23447</xdr:colOff>
+      <xdr:colOff>24483</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>140678</xdr:rowOff>
+      <xdr:rowOff>180706</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="478849" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6DFCBC-AD2B-4C8D-AA9C-F71AAE51FF1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10FA3A3-372D-4B78-BB94-D0DCAF38316E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1582,7 +1485,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1676401" y="140678"/>
+              <a:off x="1668457" y="180706"/>
               <a:ext cx="478849" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1643,13 +1546,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6DFCBC-AD2B-4C8D-AA9C-F71AAE51FF1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10FA3A3-372D-4B78-BB94-D0DCAF38316E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1657,7 +1560,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1676401" y="140678"/>
+              <a:off x="1668457" y="180706"/>
               <a:ext cx="478849" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1706,22 +1609,72 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48639</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>135753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1857982</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>541793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BD56C4-9BA1-47A3-8DED-19FBB0EE61C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2957209" y="135753"/>
+          <a:ext cx="1809343" cy="406040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>216881</xdr:colOff>
+      <xdr:colOff>188068</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>134816</xdr:rowOff>
+      <xdr:rowOff>182972</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="293074" cy="306174"/>
+    <xdr:ext cx="298287" cy="306174"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="文字方塊 5">
+            <xdr:cNvPr id="8" name="文字方塊 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987097E6-307B-4BA0-B51A-74E3D9549C00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F4DC2A-77ED-4343-8AAA-8F0A8C3630E2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1729,8 +1682,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2420819" y="134816"/>
-              <a:ext cx="293074" cy="306174"/>
+              <a:off x="2380034" y="182972"/>
+              <a:ext cx="298287" cy="306174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1752,12 +1705,12 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
+              <a:pPr marL="0" indent="0"/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1768,8 +1721,13 @@
                       <m:accPr>
                         <m:chr m:val="̅"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:accPr>
@@ -1777,12 +1735,11 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1790,12 +1747,11 @@
                           </m:sSubPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1804,12 +1760,11 @@
                           </m:e>
                           <m:sub>
                             <m:r>
-                              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1822,7 +1777,14 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1830,10 +1792,10 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="文字方塊 5">
+            <xdr:cNvPr id="8" name="文字方塊 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987097E6-307B-4BA0-B51A-74E3D9549C00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F4DC2A-77ED-4343-8AAA-8F0A8C3630E2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1841,8 +1803,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2420819" y="134816"/>
-              <a:ext cx="293074" cy="306174"/>
+              <a:off x="2380034" y="182972"/>
+              <a:ext cx="298287" cy="306174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1864,43 +1826,31 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
+              <a:pPr marL="0" indent="0"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐴_𝑓</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ) ̅</a:t>
+                <a:t>(𝐴_𝑓 ) ̅</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1908,56 +1858,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>82062</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2491154</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>537953</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="圖片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2836C072-19DE-45A4-B504-D3DC8CBC13F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3024554" y="0"/>
-          <a:ext cx="2409092" cy="537953"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2248,23 +2148,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
+    <row r="1" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
@@ -2877,7 +2771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2890,11 +2784,11 @@
       <c r="D38" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2907,11 +2801,11 @@
       <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2924,8 +2818,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>160</v>
+      <c r="E40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2942,7 +2836,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2959,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2976,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2992,8 +2886,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>212</v>
+      <c r="E44" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3010,7 +2904,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3027,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3043,11 +2937,11 @@
       <c r="D47" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3060,11 +2954,11 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3077,16 +2971,16 @@
       <c r="D49" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3094,16 +2988,16 @@
       <c r="D50" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3111,8 +3005,8 @@
       <c r="D51" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>216</v>
+      <c r="E51" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3120,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -3129,15 +3023,15 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3145,8 +3039,8 @@
       <c r="D53" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>164</v>
+      <c r="E53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3154,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -3163,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3171,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -3180,15 +3074,15 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -3196,16 +3090,16 @@
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -3213,16 +3107,16 @@
       <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -3230,16 +3124,16 @@
       <c r="D58" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -3247,16 +3141,16 @@
       <c r="D59" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -3264,16 +3158,16 @@
       <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -3281,11 +3175,11 @@
       <c r="D61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -3298,8 +3192,8 @@
       <c r="D62" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>201</v>
+      <c r="E62" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3316,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -3333,7 +3227,7 @@
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3350,10 +3244,10 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -3366,8 +3260,8 @@
       <c r="D66" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>198</v>
+      <c r="E66" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -3384,7 +3278,7 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -3401,7 +3295,7 @@
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -3418,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -3435,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -3452,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -3469,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3486,7 +3380,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -3503,10 +3397,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -3519,8 +3413,8 @@
       <c r="D75" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>180</v>
+      <c r="E75" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3537,7 +3431,7 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3554,7 +3448,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -3571,10 +3465,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -3587,8 +3481,8 @@
       <c r="D79" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>181</v>
+      <c r="E79" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -3605,7 +3499,7 @@
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3622,7 +3516,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -3639,10 +3533,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -3655,8 +3549,8 @@
       <c r="D83" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>182</v>
+      <c r="E83" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3673,7 +3567,7 @@
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -3690,7 +3584,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -3707,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3724,7 +3618,7 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -3741,7 +3635,7 @@
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -3758,7 +3652,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -3775,7 +3669,7 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3792,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -3809,7 +3703,7 @@
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3826,10 +3720,10 @@
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3842,11 +3736,11 @@
       <c r="D94" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -3859,11 +3753,11 @@
       <c r="D95" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -3876,11 +3770,11 @@
       <c r="D96" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -3893,11 +3787,11 @@
       <c r="D97" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -3910,11 +3804,11 @@
       <c r="D98" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -3927,11 +3821,11 @@
       <c r="D99" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -3944,8 +3838,8 @@
       <c r="D100" t="s">
         <v>6</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>161</v>
+      <c r="E100" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3962,7 +3856,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3979,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3996,10 +3890,10 @@
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -4012,8 +3906,8 @@
       <c r="D104" t="s">
         <v>6</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>213</v>
+      <c r="E104" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -4030,7 +3924,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -4047,10 +3941,10 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -4063,8 +3957,8 @@
       <c r="D107" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>169</v>
+      <c r="E107" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4081,10 +3975,10 @@
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -4097,16 +3991,16 @@
       <c r="D109" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -4114,16 +4008,16 @@
       <c r="D110" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -4131,8 +4025,8 @@
       <c r="D111" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>217</v>
+      <c r="E111" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -4140,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -4149,15 +4043,15 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -4165,16 +4059,16 @@
       <c r="D113" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -4182,16 +4076,16 @@
       <c r="D114" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -4199,16 +4093,16 @@
       <c r="D115" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -4216,16 +4110,16 @@
       <c r="D116" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
@@ -4233,16 +4127,16 @@
       <c r="D117" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -4250,8 +4144,8 @@
       <c r="D118" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>195</v>
+      <c r="E118" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -4259,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -4268,15 +4162,15 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -4284,8 +4178,8 @@
       <c r="D120" t="s">
         <v>6</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>221</v>
+      <c r="E120" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -4293,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -4302,10 +4196,10 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -4318,8 +4212,8 @@
       <c r="D122" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>202</v>
+      <c r="E122" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -4336,7 +4230,7 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -4353,7 +4247,7 @@
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -4370,10 +4264,10 @@
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4386,8 +4280,8 @@
       <c r="D126" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>199</v>
+      <c r="E126" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -4404,7 +4298,7 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -4421,7 +4315,7 @@
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -4438,7 +4332,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -4455,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -4472,7 +4366,7 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -4489,7 +4383,7 @@
         <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -4506,7 +4400,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -4523,7 +4417,7 @@
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -4540,7 +4434,7 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -4557,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -4574,10 +4468,10 @@
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -4590,11 +4484,11 @@
       <c r="D138" t="s">
         <v>3</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -4607,11 +4501,11 @@
       <c r="D139" t="s">
         <v>5</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4624,11 +4518,11 @@
       <c r="D140" t="s">
         <v>6</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -4641,8 +4535,8 @@
       <c r="D141" t="s">
         <v>7</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>236</v>
+      <c r="E141" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -4659,7 +4553,7 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -4676,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -4693,7 +4587,7 @@
         <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -4710,10 +4604,10 @@
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -4726,8 +4620,8 @@
       <c r="D146" t="s">
         <v>3</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>183</v>
+      <c r="E146" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -4744,7 +4638,7 @@
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -4761,7 +4655,7 @@
         <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -4778,10 +4672,10 @@
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -4794,8 +4688,8 @@
       <c r="D150" t="s">
         <v>3</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>184</v>
+      <c r="E150" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -4812,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -4829,7 +4723,7 @@
         <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -4846,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -4862,8 +4756,8 @@
       <c r="D154" t="s">
         <v>3</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>185</v>
+      <c r="E154" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -4880,7 +4774,7 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -4897,7 +4791,7 @@
         <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -4914,10 +4808,10 @@
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -4930,11 +4824,11 @@
       <c r="D158" t="s">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -4947,11 +4841,11 @@
       <c r="D159" t="s">
         <v>5</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -4964,8 +4858,8 @@
       <c r="D160" t="s">
         <v>6</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>162</v>
+      <c r="E160" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -4982,7 +4876,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4999,7 +4893,7 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -5016,10 +4910,10 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -5032,8 +4926,8 @@
       <c r="D164" t="s">
         <v>6</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>214</v>
+      <c r="E164" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -5050,7 +4944,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -5067,10 +4961,10 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -5083,8 +4977,8 @@
       <c r="D167" t="s">
         <v>5</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>170</v>
+      <c r="E167" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -5101,10 +4995,10 @@
         <v>6</v>
       </c>
       <c r="E168" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -5117,16 +5011,16 @@
       <c r="D169" t="s">
         <v>7</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E169" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -5134,16 +5028,16 @@
       <c r="D170" t="s">
         <v>3</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -5151,8 +5045,8 @@
       <c r="D171" t="s">
         <v>5</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>218</v>
+      <c r="E171" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -5160,7 +5054,7 @@
         <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -5169,15 +5063,15 @@
         <v>6</v>
       </c>
       <c r="E172" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -5185,8 +5079,8 @@
       <c r="D173" t="s">
         <v>7</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>166</v>
+      <c r="E173" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -5194,7 +5088,7 @@
         <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
@@ -5203,7 +5097,7 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -5211,7 +5105,7 @@
         <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C175" t="s">
         <v>8</v>
@@ -5220,15 +5114,15 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C176" t="s">
         <v>8</v>
@@ -5236,16 +5130,16 @@
       <c r="D176" t="s">
         <v>6</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C177" t="s">
         <v>8</v>
@@ -5253,16 +5147,16 @@
       <c r="D177" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E177" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
@@ -5270,8 +5164,8 @@
       <c r="D178" t="s">
         <v>3</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>196</v>
+      <c r="E178" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -5279,7 +5173,7 @@
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -5288,15 +5182,15 @@
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -5304,16 +5198,16 @@
       <c r="D180" t="s">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -5321,11 +5215,11 @@
       <c r="D181" t="s">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -5338,11 +5232,11 @@
       <c r="D182" t="s">
         <v>3</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -5355,11 +5249,11 @@
       <c r="D183" t="s">
         <v>5</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -5372,11 +5266,11 @@
       <c r="D184" t="s">
         <v>6</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -5389,11 +5283,11 @@
       <c r="D185" t="s">
         <v>7</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -5406,8 +5300,8 @@
       <c r="D186" t="s">
         <v>3</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>200</v>
+      <c r="E186" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -5424,7 +5318,7 @@
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -5441,7 +5335,7 @@
         <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -5458,7 +5352,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -5475,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -5492,7 +5386,7 @@
         <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -5509,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -5526,7 +5420,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -5543,7 +5437,7 @@
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -5560,7 +5454,7 @@
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -5577,7 +5471,7 @@
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -5594,7 +5488,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -5611,7 +5505,7 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -5628,7 +5522,7 @@
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5645,7 +5539,7 @@
         <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -5662,7 +5556,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -5679,7 +5573,7 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -5696,7 +5590,7 @@
         <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -5713,7 +5607,7 @@
         <v>6</v>
       </c>
       <c r="E204" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -5730,7 +5624,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -5747,7 +5641,7 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -5764,7 +5658,7 @@
         <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -5781,7 +5675,7 @@
         <v>6</v>
       </c>
       <c r="E208" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -5798,7 +5692,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -5815,7 +5709,7 @@
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -5832,7 +5726,7 @@
         <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -5849,7 +5743,7 @@
         <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -5866,7 +5760,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -5883,7 +5777,7 @@
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -5900,7 +5794,7 @@
         <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -5917,7 +5811,7 @@
         <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -5934,10 +5828,10 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -5950,11 +5844,11 @@
       <c r="D218" t="s">
         <v>3</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -5967,11 +5861,11 @@
       <c r="D219" t="s">
         <v>5</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E219" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -5984,8 +5878,8 @@
       <c r="D220" t="s">
         <v>6</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>163</v>
+      <c r="E220" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -6002,7 +5896,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -6019,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -6036,10 +5930,10 @@
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -6052,8 +5946,8 @@
       <c r="D224" t="s">
         <v>6</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>215</v>
+      <c r="E224" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -6070,7 +5964,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -6087,10 +5981,10 @@
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>23</v>
       </c>
@@ -6103,8 +5997,8 @@
       <c r="D227" t="s">
         <v>5</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>171</v>
+      <c r="E227" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -6121,10 +6015,10 @@
         <v>6</v>
       </c>
       <c r="E228" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -6137,16 +6031,16 @@
       <c r="D229" t="s">
         <v>7</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E229" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>23</v>
       </c>
       <c r="B230" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -6154,16 +6048,16 @@
       <c r="D230" t="s">
         <v>3</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E230" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>23</v>
       </c>
       <c r="B231" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
@@ -6171,8 +6065,8 @@
       <c r="D231" t="s">
         <v>5</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>219</v>
+      <c r="E231" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -6180,7 +6074,7 @@
         <v>23</v>
       </c>
       <c r="B232" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -6189,15 +6083,15 @@
         <v>6</v>
       </c>
       <c r="E232" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>23</v>
       </c>
       <c r="B233" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -6205,8 +6099,8 @@
       <c r="D233" t="s">
         <v>7</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>167</v>
+      <c r="E233" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -6214,7 +6108,7 @@
         <v>23</v>
       </c>
       <c r="B234" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C234" t="s">
         <v>8</v>
@@ -6223,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -6231,7 +6125,7 @@
         <v>23</v>
       </c>
       <c r="B235" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
@@ -6240,15 +6134,15 @@
         <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>23</v>
       </c>
       <c r="B236" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -6256,16 +6150,16 @@
       <c r="D236" t="s">
         <v>6</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E236" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>23</v>
       </c>
       <c r="B237" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -6273,16 +6167,16 @@
       <c r="D237" t="s">
         <v>7</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>23</v>
       </c>
       <c r="B238" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
@@ -6290,8 +6184,8 @@
       <c r="D238" t="s">
         <v>3</v>
       </c>
-      <c r="E238" s="2" t="s">
-        <v>197</v>
+      <c r="E238" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -6299,7 +6193,7 @@
         <v>23</v>
       </c>
       <c r="B239" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
@@ -6308,15 +6202,15 @@
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>23</v>
       </c>
       <c r="B240" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
@@ -6324,16 +6218,16 @@
       <c r="D240" t="s">
         <v>6</v>
       </c>
-      <c r="E240" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E240" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>23</v>
       </c>
       <c r="B241" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -6341,12 +6235,11 @@
       <c r="D241" t="s">
         <v>7</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>179</v>
+      <c r="E241" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E241" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Simulation results.xlsx
+++ b/Simulation results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F0487E-852A-4B0C-B02E-174FC2D67892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197E5137-8376-4C6E-8DA5-7EFBB249B04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="470">
   <si>
     <t>-1%</t>
   </si>
@@ -34,8 +34,7 @@
     <t>0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">0
-</t>
+    <t>0</t>
   </si>
   <si>
     <t>0.3</t>
@@ -56,925 +55,1381 @@
     <t>30%</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0419065
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0424819
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0430509
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0437046
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0440689
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0446402
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0452518
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0458842
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0462927
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0469053
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0474904
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0482044
-</t>
+    <t>0.0419175</t>
+  </si>
+  <si>
+    <t>1.71138e-05</t>
+  </si>
+  <si>
+    <t>0.0425016</t>
+  </si>
+  <si>
+    <t>1.23385e-05</t>
+  </si>
+  <si>
+    <t>0.0430752</t>
+  </si>
+  <si>
+    <t>1.18577e-05</t>
+  </si>
+  <si>
+    <t>0.0437125</t>
+  </si>
+  <si>
+    <t>1.26547e-05</t>
+  </si>
+  <si>
+    <t>0.0440836</t>
+  </si>
+  <si>
+    <t>1.5117e-05</t>
+  </si>
+  <si>
+    <t>0.0446478</t>
+  </si>
+  <si>
+    <t>9.68274e-06</t>
+  </si>
+  <si>
+    <t>0.0452011</t>
+  </si>
+  <si>
+    <t>1.11868e-05</t>
+  </si>
+  <si>
+    <t>0.0458888</t>
+  </si>
+  <si>
+    <t>1.28526e-05</t>
+  </si>
+  <si>
+    <t>0.0463262</t>
+  </si>
+  <si>
+    <t>1.36283e-05</t>
+  </si>
+  <si>
+    <t>0.046873</t>
+  </si>
+  <si>
+    <t>1.43498e-05</t>
+  </si>
+  <si>
+    <t>0.0474834</t>
+  </si>
+  <si>
+    <t>1.03642e-05</t>
+  </si>
+  <si>
+    <t>0.0482008</t>
+  </si>
+  <si>
+    <t>1.08117e-05</t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243486
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244936
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246561
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248123
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253926
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255535
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.257127
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25886
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26509
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.266642
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.268327
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.270173
-</t>
+    <t>0.243486</t>
+  </si>
+  <si>
+    <t>2.19754e-05</t>
+  </si>
+  <si>
+    <t>0.244937</t>
+  </si>
+  <si>
+    <t>2.76391e-05</t>
+  </si>
+  <si>
+    <t>0.246541</t>
+  </si>
+  <si>
+    <t>2.63357e-05</t>
+  </si>
+  <si>
+    <t>0.248173</t>
+  </si>
+  <si>
+    <t>2.46663e-05</t>
+  </si>
+  <si>
+    <t>0.253861</t>
+  </si>
+  <si>
+    <t>3.45111e-05</t>
+  </si>
+  <si>
+    <t>0.255472</t>
+  </si>
+  <si>
+    <t>2.59473e-05</t>
+  </si>
+  <si>
+    <t>0.257111</t>
+  </si>
+  <si>
+    <t>3.23093e-05</t>
+  </si>
+  <si>
+    <t>0.258853</t>
+  </si>
+  <si>
+    <t>2.95029e-05</t>
+  </si>
+  <si>
+    <t>0.264994</t>
+  </si>
+  <si>
+    <t>3.08647e-05</t>
+  </si>
+  <si>
+    <t>0.26663</t>
+  </si>
+  <si>
+    <t>2.61509e-05</t>
+  </si>
+  <si>
+    <t>0.268346</t>
+  </si>
+  <si>
+    <t>2.07773e-05</t>
+  </si>
+  <si>
+    <t>0.270208</t>
+  </si>
+  <si>
+    <t>3.29325e-05</t>
   </si>
   <si>
     <t>70%</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765938
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769602
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.773332
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.777333
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807388
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811041
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815366
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819325
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852445
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856364
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860675
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865301
-</t>
+    <t>0.765788</t>
+  </si>
+  <si>
+    <t>8.16253e-05</t>
+  </si>
+  <si>
+    <t>0.76952</t>
+  </si>
+  <si>
+    <t>7.64012e-05</t>
+  </si>
+  <si>
+    <t>0.773316</t>
+  </si>
+  <si>
+    <t>6.67711e-05</t>
+  </si>
+  <si>
+    <t>0.77748</t>
+  </si>
+  <si>
+    <t>6.61594e-05</t>
+  </si>
+  <si>
+    <t>0.807219</t>
+  </si>
+  <si>
+    <t>8.96636e-05</t>
+  </si>
+  <si>
+    <t>0.811099</t>
+  </si>
+  <si>
+    <t>8.59349e-05</t>
+  </si>
+  <si>
+    <t>0.815065</t>
+  </si>
+  <si>
+    <t>6.8457e-05</t>
+  </si>
+  <si>
+    <t>0.819436</t>
+  </si>
+  <si>
+    <t>5.39431e-05</t>
+  </si>
+  <si>
+    <t>0.852124</t>
+  </si>
+  <si>
+    <t>7.34298e-05</t>
+  </si>
+  <si>
+    <t>0.856387</t>
+  </si>
+  <si>
+    <t>8.5282e-05</t>
+  </si>
+  <si>
+    <t>0.86079</t>
+  </si>
+  <si>
+    <t>7.9105e-05</t>
+  </si>
+  <si>
+    <t>0.865138</t>
+  </si>
+  <si>
+    <t>5.52712e-05</t>
   </si>
   <si>
     <t>90%</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90098
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91551
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92944
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94496
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29089
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30759
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32486
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34261
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80035
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81977
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84037
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86282
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0240958
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0243875
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0247756
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0252252
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.024895
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0251907
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0255773
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0260554
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0257054
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0260305
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.026418
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0269132
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179242
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18125
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183222
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185701
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183146
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185393
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187146
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189382
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187073
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189157
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191161
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193987
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331299
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333939
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336871
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340792
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338427
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342039
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344127
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347205
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346067
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349336
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351928
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356743
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.464185
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467497
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470806
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476159
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4756
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.479789
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.482307
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486037
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.487374
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491978
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494489
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.501096
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.588253
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.591872
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596067
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602949
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.604487
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.609527
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.612495
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616738
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.621445
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.626594
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.630051
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.637579
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0117492
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0119389
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0122049
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0125427
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0122234
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0124223
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0127111
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0130458
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0127022
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012931
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0132501
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0135595
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125509
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127025
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128622
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130521
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128326
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13001
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133281
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131273
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132856
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134501
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136674
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.267253
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.269462
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.272051
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.275288
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.274137
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.277
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.279018
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.281689
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.281456
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.284016
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.286397
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.290157
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.466332
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.469519
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.472909
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477905
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.482537
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486643
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489248
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493045
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499749
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.503832
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507193
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512803
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.805954
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810697
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815678
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823181
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846338
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852019
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856589
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861767
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890123
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896988
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900662
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908743
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00313646
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0033029
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00343572
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00360121
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00332842
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00347159
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00361924
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00380978
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0035216
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00367159
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00381756
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00402479
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0788018
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0796959
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0806793
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0818967
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0811172
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0821051
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0830945
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0842689
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0835678
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0845455
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0855825
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0868971
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249546
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2512
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253066
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255485
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258186
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260188
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261867
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264029
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.267406
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.269242
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271235
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273884
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.606342
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.609316
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.612571
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61717
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.634436
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63756
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640951
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.644755
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.664577
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.668038
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671497
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.676315
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53942
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54622
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5531
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56231
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66442
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67198
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67946
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68827
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.812
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82048
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82907
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8389
-</t>
+    <t>2.90066</t>
+  </si>
+  <si>
+    <t>0.000335498</t>
+  </si>
+  <si>
+    <t>2.91672</t>
+  </si>
+  <si>
+    <t>0.000433834</t>
+  </si>
+  <si>
+    <t>2.92984</t>
+  </si>
+  <si>
+    <t>0.000519017</t>
+  </si>
+  <si>
+    <t>2.94496</t>
+  </si>
+  <si>
+    <t>0.000452001</t>
+  </si>
+  <si>
+    <t>3.29027</t>
+  </si>
+  <si>
+    <t>0.000627597</t>
+  </si>
+  <si>
+    <t>3.30596</t>
+  </si>
+  <si>
+    <t>0.000512875</t>
+  </si>
+  <si>
+    <t>3.32437</t>
+  </si>
+  <si>
+    <t>0.000647819</t>
+  </si>
+  <si>
+    <t>3.34298</t>
+  </si>
+  <si>
+    <t>0.000617057</t>
+  </si>
+  <si>
+    <t>3.80026</t>
+  </si>
+  <si>
+    <t>0.000786936</t>
+  </si>
+  <si>
+    <t>3.82082</t>
+  </si>
+  <si>
+    <t>0.000578288</t>
+  </si>
+  <si>
+    <t>3.8407</t>
+  </si>
+  <si>
+    <t>0.000581102</t>
+  </si>
+  <si>
+    <t>3.86378</t>
+  </si>
+  <si>
+    <t>0.000853057</t>
+  </si>
+  <si>
+    <t>0.0240915</t>
+  </si>
+  <si>
+    <t>7.66723e-06</t>
+  </si>
+  <si>
+    <t>0.0244065</t>
+  </si>
+  <si>
+    <t>1.03727e-05</t>
+  </si>
+  <si>
+    <t>0.0247708</t>
+  </si>
+  <si>
+    <t>8.80766e-06</t>
+  </si>
+  <si>
+    <t>0.0252228</t>
+  </si>
+  <si>
+    <t>6.91238e-06</t>
+  </si>
+  <si>
+    <t>0.0248832</t>
+  </si>
+  <si>
+    <t>8.78611e-06</t>
+  </si>
+  <si>
+    <t>0.025195</t>
+  </si>
+  <si>
+    <t>9.24042e-06</t>
+  </si>
+  <si>
+    <t>0.0255771</t>
+  </si>
+  <si>
+    <t>9.56431e-06</t>
+  </si>
+  <si>
+    <t>0.0260351</t>
+  </si>
+  <si>
+    <t>8.68858e-06</t>
+  </si>
+  <si>
+    <t>0.025726</t>
+  </si>
+  <si>
+    <t>9.40979e-06</t>
+  </si>
+  <si>
+    <t>0.0260139</t>
+  </si>
+  <si>
+    <t>1.07241e-05</t>
+  </si>
+  <si>
+    <t>0.0264206</t>
+  </si>
+  <si>
+    <t>9.09234e-06</t>
+  </si>
+  <si>
+    <t>0.0269006</t>
+  </si>
+  <si>
+    <t>7.50263e-06</t>
+  </si>
+  <si>
+    <t>0.179279</t>
+  </si>
+  <si>
+    <t>2.38274e-05</t>
+  </si>
+  <si>
+    <t>0.181227</t>
+  </si>
+  <si>
+    <t>2.62631e-05</t>
+  </si>
+  <si>
+    <t>0.183218</t>
+  </si>
+  <si>
+    <t>2.75696e-05</t>
+  </si>
+  <si>
+    <t>0.185804</t>
+  </si>
+  <si>
+    <t>2.0802e-05</t>
+  </si>
+  <si>
+    <t>0.183138</t>
+  </si>
+  <si>
+    <t>2.53769e-05</t>
+  </si>
+  <si>
+    <t>0.185385</t>
+  </si>
+  <si>
+    <t>3.12636e-05</t>
+  </si>
+  <si>
+    <t>0.187103</t>
+  </si>
+  <si>
+    <t>2.74447e-05</t>
+  </si>
+  <si>
+    <t>0.189333</t>
+  </si>
+  <si>
+    <t>3.01366e-05</t>
+  </si>
+  <si>
+    <t>0.18707</t>
+  </si>
+  <si>
+    <t>3.52507e-05</t>
+  </si>
+  <si>
+    <t>0.189167</t>
+  </si>
+  <si>
+    <t>2.65443e-05</t>
+  </si>
+  <si>
+    <t>0.191189</t>
+  </si>
+  <si>
+    <t>2.37969e-05</t>
+  </si>
+  <si>
+    <t>0.194059</t>
+  </si>
+  <si>
+    <t>3.3392e-05</t>
+  </si>
+  <si>
+    <t>0.331178</t>
+  </si>
+  <si>
+    <t>5.46155e-05</t>
+  </si>
+  <si>
+    <t>0.333906</t>
+  </si>
+  <si>
+    <t>4.73006e-05</t>
+  </si>
+  <si>
+    <t>0.336898</t>
+  </si>
+  <si>
+    <t>6.91374e-05</t>
+  </si>
+  <si>
+    <t>0.340831</t>
+  </si>
+  <si>
+    <t>6.1424e-05</t>
+  </si>
+  <si>
+    <t>0.338439</t>
+  </si>
+  <si>
+    <t>4.79526e-05</t>
+  </si>
+  <si>
+    <t>0.342062</t>
+  </si>
+  <si>
+    <t>4.76934e-05</t>
+  </si>
+  <si>
+    <t>0.344216</t>
+  </si>
+  <si>
+    <t>3.67894e-05</t>
+  </si>
+  <si>
+    <t>0.347253</t>
+  </si>
+  <si>
+    <t>5.05354e-05</t>
+  </si>
+  <si>
+    <t>0.346044</t>
+  </si>
+  <si>
+    <t>5.3548e-05</t>
+  </si>
+  <si>
+    <t>0.349304</t>
+  </si>
+  <si>
+    <t>6.51325e-05</t>
+  </si>
+  <si>
+    <t>0.351993</t>
+  </si>
+  <si>
+    <t>3.88638e-05</t>
+  </si>
+  <si>
+    <t>0.356453</t>
+  </si>
+  <si>
+    <t>8.74969e-05</t>
+  </si>
+  <si>
+    <t>0.464163</t>
+  </si>
+  <si>
+    <t>8.96485e-05</t>
+  </si>
+  <si>
+    <t>0.467271</t>
+  </si>
+  <si>
+    <t>9.1651e-05</t>
+  </si>
+  <si>
+    <t>0.470849</t>
+  </si>
+  <si>
+    <t>9.76394e-05</t>
+  </si>
+  <si>
+    <t>0.476416</t>
+  </si>
+  <si>
+    <t>0.000136144</t>
+  </si>
+  <si>
+    <t>0.475318</t>
+  </si>
+  <si>
+    <t>8.83763e-05</t>
+  </si>
+  <si>
+    <t>0.479936</t>
+  </si>
+  <si>
+    <t>0.000112342</t>
+  </si>
+  <si>
+    <t>0.482356</t>
+  </si>
+  <si>
+    <t>8.71719e-05</t>
+  </si>
+  <si>
+    <t>0.486155</t>
+  </si>
+  <si>
+    <t>6.06528e-05</t>
+  </si>
+  <si>
+    <t>0.487465</t>
+  </si>
+  <si>
+    <t>0.000113247</t>
+  </si>
+  <si>
+    <t>0.491463</t>
+  </si>
+  <si>
+    <t>9.9504e-05</t>
+  </si>
+  <si>
+    <t>0.494597</t>
+  </si>
+  <si>
+    <t>8.6229e-05</t>
+  </si>
+  <si>
+    <t>0.501298</t>
+  </si>
+  <si>
+    <t>0.000100574</t>
+  </si>
+  <si>
+    <t>0.587959</t>
+  </si>
+  <si>
+    <t>0.000149147</t>
+  </si>
+  <si>
+    <t>0.592018</t>
+  </si>
+  <si>
+    <t>0.000133066</t>
+  </si>
+  <si>
+    <t>0.596016</t>
+  </si>
+  <si>
+    <t>0.000118246</t>
+  </si>
+  <si>
+    <t>0.60256</t>
+  </si>
+  <si>
+    <t>0.0001381</t>
+  </si>
+  <si>
+    <t>0.604567</t>
+  </si>
+  <si>
+    <t>0.00012514</t>
+  </si>
+  <si>
+    <t>0.609849</t>
+  </si>
+  <si>
+    <t>0.000154629</t>
+  </si>
+  <si>
+    <t>0.612226</t>
+  </si>
+  <si>
+    <t>0.000126555</t>
+  </si>
+  <si>
+    <t>0.616714</t>
+  </si>
+  <si>
+    <t>0.000121324</t>
+  </si>
+  <si>
+    <t>0.621676</t>
+  </si>
+  <si>
+    <t>0.000157238</t>
+  </si>
+  <si>
+    <t>0.626541</t>
+  </si>
+  <si>
+    <t>0.000229202</t>
+  </si>
+  <si>
+    <t>0.629806</t>
+  </si>
+  <si>
+    <t>0.000151512</t>
+  </si>
+  <si>
+    <t>0.637734</t>
+  </si>
+  <si>
+    <t>0.000188359</t>
+  </si>
+  <si>
+    <t>0.01175</t>
+  </si>
+  <si>
+    <t>6.98184e-06</t>
+  </si>
+  <si>
+    <t>0.011945</t>
+  </si>
+  <si>
+    <t>4.99608e-06</t>
+  </si>
+  <si>
+    <t>0.0122092</t>
+  </si>
+  <si>
+    <t>7.91707e-06</t>
+  </si>
+  <si>
+    <t>0.0125518</t>
+  </si>
+  <si>
+    <t>7.17042e-06</t>
+  </si>
+  <si>
+    <t>0.0122136</t>
+  </si>
+  <si>
+    <t>7.22091e-06</t>
+  </si>
+  <si>
+    <t>0.0124257</t>
+  </si>
+  <si>
+    <t>5.97114e-06</t>
+  </si>
+  <si>
+    <t>0.0127292</t>
+  </si>
+  <si>
+    <t>8.09987e-06</t>
+  </si>
+  <si>
+    <t>0.0130346</t>
+  </si>
+  <si>
+    <t>6.47036e-06</t>
+  </si>
+  <si>
+    <t>0.012715</t>
+  </si>
+  <si>
+    <t>5.94059e-06</t>
+  </si>
+  <si>
+    <t>0.0129257</t>
+  </si>
+  <si>
+    <t>6.46448e-06</t>
+  </si>
+  <si>
+    <t>0.0132329</t>
+  </si>
+  <si>
+    <t>8.45002e-06</t>
+  </si>
+  <si>
+    <t>0.0135601</t>
+  </si>
+  <si>
+    <t>8.51068e-06</t>
+  </si>
+  <si>
+    <t>0.12552</t>
+  </si>
+  <si>
+    <t>2.03937e-05</t>
+  </si>
+  <si>
+    <t>0.126978</t>
+  </si>
+  <si>
+    <t>1.85672e-05</t>
+  </si>
+  <si>
+    <t>0.128588</t>
+  </si>
+  <si>
+    <t>2.05085e-05</t>
+  </si>
+  <si>
+    <t>0.130568</t>
+  </si>
+  <si>
+    <t>1.86967e-05</t>
+  </si>
+  <si>
+    <t>0.128338</t>
+  </si>
+  <si>
+    <t>2.53087e-05</t>
+  </si>
+  <si>
+    <t>0.130011</t>
+  </si>
+  <si>
+    <t>1.81569e-05</t>
+  </si>
+  <si>
+    <t>0.13151</t>
+  </si>
+  <si>
+    <t>2.07448e-05</t>
+  </si>
+  <si>
+    <t>0.133284</t>
+  </si>
+  <si>
+    <t>2.45596e-05</t>
+  </si>
+  <si>
+    <t>0.131279</t>
+  </si>
+  <si>
+    <t>1.4561e-05</t>
+  </si>
+  <si>
+    <t>0.132874</t>
+  </si>
+  <si>
+    <t>1.53119e-05</t>
+  </si>
+  <si>
+    <t>0.134513</t>
+  </si>
+  <si>
+    <t>1.36199e-05</t>
+  </si>
+  <si>
+    <t>0.136638</t>
+  </si>
+  <si>
+    <t>1.49648e-05</t>
+  </si>
+  <si>
+    <t>0.267254</t>
+  </si>
+  <si>
+    <t>4.55847e-05</t>
+  </si>
+  <si>
+    <t>0.269476</t>
+  </si>
+  <si>
+    <t>3.77442e-05</t>
+  </si>
+  <si>
+    <t>0.272021</t>
+  </si>
+  <si>
+    <t>4.17023e-05</t>
+  </si>
+  <si>
+    <t>0.275209</t>
+  </si>
+  <si>
+    <t>4.25165e-05</t>
+  </si>
+  <si>
+    <t>0.27412</t>
+  </si>
+  <si>
+    <t>5.43175e-05</t>
+  </si>
+  <si>
+    <t>0.276939</t>
+  </si>
+  <si>
+    <t>4.58886e-05</t>
+  </si>
+  <si>
+    <t>0.279021</t>
+  </si>
+  <si>
+    <t>4.45711e-05</t>
+  </si>
+  <si>
+    <t>0.281673</t>
+  </si>
+  <si>
+    <t>3.59054e-05</t>
+  </si>
+  <si>
+    <t>0.28133</t>
+  </si>
+  <si>
+    <t>4.07437e-05</t>
+  </si>
+  <si>
+    <t>0.284011</t>
+  </si>
+  <si>
+    <t>3.50756e-05</t>
+  </si>
+  <si>
+    <t>0.286423</t>
+  </si>
+  <si>
+    <t>6.60919e-05</t>
+  </si>
+  <si>
+    <t>0.290103</t>
+  </si>
+  <si>
+    <t>4.12914e-05</t>
+  </si>
+  <si>
+    <t>0.466217</t>
+  </si>
+  <si>
+    <t>8.56932e-05</t>
+  </si>
+  <si>
+    <t>0.469585</t>
+  </si>
+  <si>
+    <t>7.89252e-05</t>
+  </si>
+  <si>
+    <t>0.473083</t>
+  </si>
+  <si>
+    <t>0.000119374</t>
+  </si>
+  <si>
+    <t>0.477842</t>
+  </si>
+  <si>
+    <t>9.00659e-05</t>
+  </si>
+  <si>
+    <t>0.482576</t>
+  </si>
+  <si>
+    <t>8.62164e-05</t>
+  </si>
+  <si>
+    <t>0.486728</t>
+  </si>
+  <si>
+    <t>9.35603e-05</t>
+  </si>
+  <si>
+    <t>0.489432</t>
+  </si>
+  <si>
+    <t>0.000114642</t>
+  </si>
+  <si>
+    <t>0.493087</t>
+  </si>
+  <si>
+    <t>9.16271e-05</t>
+  </si>
+  <si>
+    <t>0.499828</t>
+  </si>
+  <si>
+    <t>0.00011946</t>
+  </si>
+  <si>
+    <t>0.503777</t>
+  </si>
+  <si>
+    <t>8.90083e-05</t>
+  </si>
+  <si>
+    <t>0.506877</t>
+  </si>
+  <si>
+    <t>9.45049e-05</t>
+  </si>
+  <si>
+    <t>0.512781</t>
+  </si>
+  <si>
+    <t>0.000125528</t>
+  </si>
+  <si>
+    <t>0.806111</t>
+  </si>
+  <si>
+    <t>0.000131216</t>
+  </si>
+  <si>
+    <t>0.810699</t>
+  </si>
+  <si>
+    <t>0.000174948</t>
+  </si>
+  <si>
+    <t>0.816076</t>
+  </si>
+  <si>
+    <t>0.000187964</t>
+  </si>
+  <si>
+    <t>0.823204</t>
+  </si>
+  <si>
+    <t>0.000171326</t>
+  </si>
+  <si>
+    <t>0.846346</t>
+  </si>
+  <si>
+    <t>0.000233254</t>
+  </si>
+  <si>
+    <t>0.852172</t>
+  </si>
+  <si>
+    <t>0.000165226</t>
+  </si>
+  <si>
+    <t>0.856425</t>
+  </si>
+  <si>
+    <t>0.000245821</t>
+  </si>
+  <si>
+    <t>0.861782</t>
+  </si>
+  <si>
+    <t>0.000241199</t>
+  </si>
+  <si>
+    <t>0.890081</t>
+  </si>
+  <si>
+    <t>0.000282864</t>
+  </si>
+  <si>
+    <t>0.896494</t>
+  </si>
+  <si>
+    <t>0.000279132</t>
+  </si>
+  <si>
+    <t>0.900744</t>
+  </si>
+  <si>
+    <t>0.000189804</t>
+  </si>
+  <si>
+    <t>0.909195</t>
+  </si>
+  <si>
+    <t>0.000237041</t>
+  </si>
+  <si>
+    <t>0.0031361</t>
+  </si>
+  <si>
+    <t>4.6443e-06</t>
+  </si>
+  <si>
+    <t>0.00328278</t>
+  </si>
+  <si>
+    <t>3.36399e-06</t>
+  </si>
+  <si>
+    <t>0.00343038</t>
+  </si>
+  <si>
+    <t>3.6496e-06</t>
+  </si>
+  <si>
+    <t>0.00359788</t>
+  </si>
+  <si>
+    <t>4.34985e-06</t>
+  </si>
+  <si>
+    <t>0.00332946</t>
+  </si>
+  <si>
+    <t>2.7031e-06</t>
+  </si>
+  <si>
+    <t>0.00347338</t>
+  </si>
+  <si>
+    <t>4.6271e-06</t>
+  </si>
+  <si>
+    <t>0.00361976</t>
+  </si>
+  <si>
+    <t>2.8066e-06</t>
+  </si>
+  <si>
+    <t>0.0038111</t>
+  </si>
+  <si>
+    <t>4.70835e-06</t>
+  </si>
+  <si>
+    <t>0.00352697</t>
+  </si>
+  <si>
+    <t>3.75827e-06</t>
+  </si>
+  <si>
+    <t>0.00366654</t>
+  </si>
+  <si>
+    <t>3.33843e-06</t>
+  </si>
+  <si>
+    <t>0.00381498</t>
+  </si>
+  <si>
+    <t>3.09311e-06</t>
+  </si>
+  <si>
+    <t>0.00403013</t>
+  </si>
+  <si>
+    <t>4.80878e-06</t>
+  </si>
+  <si>
+    <t>0.0788131</t>
+  </si>
+  <si>
+    <t>1.3209e-05</t>
+  </si>
+  <si>
+    <t>0.0797049</t>
+  </si>
+  <si>
+    <t>1.13822e-05</t>
+  </si>
+  <si>
+    <t>0.0806883</t>
+  </si>
+  <si>
+    <t>1.37793e-05</t>
+  </si>
+  <si>
+    <t>0.0818923</t>
+  </si>
+  <si>
+    <t>1.52594e-05</t>
+  </si>
+  <si>
+    <t>0.0811458</t>
+  </si>
+  <si>
+    <t>1.59841e-05</t>
+  </si>
+  <si>
+    <t>0.0821015</t>
+  </si>
+  <si>
+    <t>1.62103e-05</t>
+  </si>
+  <si>
+    <t>0.0830947</t>
+  </si>
+  <si>
+    <t>1.60345e-05</t>
+  </si>
+  <si>
+    <t>0.0842603</t>
+  </si>
+  <si>
+    <t>1.94641e-05</t>
+  </si>
+  <si>
+    <t>0.083607</t>
+  </si>
+  <si>
+    <t>1.45866e-05</t>
+  </si>
+  <si>
+    <t>0.0845133</t>
+  </si>
+  <si>
+    <t>1.70006e-05</t>
+  </si>
+  <si>
+    <t>0.0856013</t>
+  </si>
+  <si>
+    <t>1.49324e-05</t>
+  </si>
+  <si>
+    <t>0.0868916</t>
+  </si>
+  <si>
+    <t>1.63444e-05</t>
+  </si>
+  <si>
+    <t>0.249479</t>
+  </si>
+  <si>
+    <t>2.23536e-05</t>
+  </si>
+  <si>
+    <t>0.251226</t>
+  </si>
+  <si>
+    <t>4.33889e-05</t>
+  </si>
+  <si>
+    <t>0.253042</t>
+  </si>
+  <si>
+    <t>3.75818e-05</t>
+  </si>
+  <si>
+    <t>0.255432</t>
+  </si>
+  <si>
+    <t>3.65179e-05</t>
+  </si>
+  <si>
+    <t>0.258255</t>
+  </si>
+  <si>
+    <t>3.84632e-05</t>
+  </si>
+  <si>
+    <t>0.260124</t>
+  </si>
+  <si>
+    <t>3.67442e-05</t>
+  </si>
+  <si>
+    <t>0.261923</t>
+  </si>
+  <si>
+    <t>4.11372e-05</t>
+  </si>
+  <si>
+    <t>0.264017</t>
+  </si>
+  <si>
+    <t>3.1879e-05</t>
+  </si>
+  <si>
+    <t>0.267378</t>
+  </si>
+  <si>
+    <t>3.63993e-05</t>
+  </si>
+  <si>
+    <t>0.269282</t>
+  </si>
+  <si>
+    <t>3.11076e-05</t>
+  </si>
+  <si>
+    <t>0.271303</t>
+  </si>
+  <si>
+    <t>4.15618e-05</t>
+  </si>
+  <si>
+    <t>0.273864</t>
+  </si>
+  <si>
+    <t>4.08987e-05</t>
+  </si>
+  <si>
+    <t>0.606383</t>
+  </si>
+  <si>
+    <t>7.65828e-05</t>
+  </si>
+  <si>
+    <t>0.609366</t>
+  </si>
+  <si>
+    <t>0.000108848</t>
+  </si>
+  <si>
+    <t>0.612683</t>
+  </si>
+  <si>
+    <t>9.43345e-05</t>
+  </si>
+  <si>
+    <t>0.617037</t>
+  </si>
+  <si>
+    <t>9.8674e-05</t>
+  </si>
+  <si>
+    <t>0.634265</t>
+  </si>
+  <si>
+    <t>8.99481e-05</t>
+  </si>
+  <si>
+    <t>0.63791</t>
+  </si>
+  <si>
+    <t>8.53463e-05</t>
+  </si>
+  <si>
+    <t>0.640964</t>
+  </si>
+  <si>
+    <t>7.46718e-05</t>
+  </si>
+  <si>
+    <t>0.644729</t>
+  </si>
+  <si>
+    <t>0.000109849</t>
+  </si>
+  <si>
+    <t>0.664428</t>
+  </si>
+  <si>
+    <t>0.000115034</t>
+  </si>
+  <si>
+    <t>0.668051</t>
+  </si>
+  <si>
+    <t>7.18307e-05</t>
+  </si>
+  <si>
+    <t>0.671483</t>
+  </si>
+  <si>
+    <t>9.64787e-05</t>
+  </si>
+  <si>
+    <t>0.676346</t>
+  </si>
+  <si>
+    <t>0.000121151</t>
+  </si>
+  <si>
+    <t>1.53928</t>
+  </si>
+  <si>
+    <t>0.00040081</t>
+  </si>
+  <si>
+    <t>1.54579</t>
+  </si>
+  <si>
+    <t>0.000407237</t>
+  </si>
+  <si>
+    <t>1.5535</t>
+  </si>
+  <si>
+    <t>0.000312122</t>
+  </si>
+  <si>
+    <t>1.56244</t>
+  </si>
+  <si>
+    <t>0.000402488</t>
+  </si>
+  <si>
+    <t>1.66508</t>
+  </si>
+  <si>
+    <t>0.000277432</t>
+  </si>
+  <si>
+    <t>1.67239</t>
+  </si>
+  <si>
+    <t>0.000418052</t>
+  </si>
+  <si>
+    <t>1.68104</t>
+  </si>
+  <si>
+    <t>0.000408295</t>
+  </si>
+  <si>
+    <t>1.68884</t>
+  </si>
+  <si>
+    <t>0.000422023</t>
+  </si>
+  <si>
+    <t>1.81087</t>
+  </si>
+  <si>
+    <t>0.000433881</t>
+  </si>
+  <si>
+    <t>1.82065</t>
+  </si>
+  <si>
+    <t>0.000560082</t>
+  </si>
+  <si>
+    <t>1.828</t>
+  </si>
+  <si>
+    <t>0.000595381</t>
+  </si>
+  <si>
+    <t>1.83849</t>
+  </si>
+  <si>
+    <t>0.000507487</t>
   </si>
 </sst>
 </file>
@@ -1041,9 +1496,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>136187</xdr:colOff>
+      <xdr:colOff>119063</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>160274</xdr:rowOff>
+      <xdr:rowOff>81672</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214546" cy="281808"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1053,7 +1508,7 @@
             <xdr:cNvPr id="2" name="文字方塊 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173A45FA-552A-4780-926D-11C030F6C0D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3111A0AA-287E-4450-ACF5-A9A75B5334DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1061,7 +1516,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="136187" y="160274"/>
+              <a:off x="119063" y="81672"/>
               <a:ext cx="214546" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1135,7 +1590,7 @@
             <xdr:cNvPr id="2" name="文字方塊 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173A45FA-552A-4780-926D-11C030F6C0D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3111A0AA-287E-4450-ACF5-A9A75B5334DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1143,7 +1598,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="136187" y="160274"/>
+              <a:off x="119063" y="81672"/>
               <a:ext cx="214546" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1189,9 +1644,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>45416</xdr:colOff>
+      <xdr:colOff>30731</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>166135</xdr:rowOff>
+      <xdr:rowOff>87533</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="400302" cy="281808"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1201,7 +1656,7 @@
             <xdr:cNvPr id="3" name="文字方塊 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E1184E-B6E9-46E8-9244-0D626D796148}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA31B767-9D7E-41D3-AE93-3CFC115B033C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1209,7 +1664,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="593407" y="166135"/>
+              <a:off x="578419" y="87533"/>
               <a:ext cx="400302" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1276,7 +1731,7 @@
             <xdr:cNvPr id="3" name="文字方塊 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E1184E-B6E9-46E8-9244-0D626D796148}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA31B767-9D7E-41D3-AE93-3CFC115B033C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1284,7 +1739,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="593407" y="166135"/>
+              <a:off x="578419" y="87533"/>
               <a:ext cx="400302" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1336,9 +1791,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>155447</xdr:colOff>
+      <xdr:colOff>143202</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>182213</xdr:rowOff>
+      <xdr:rowOff>103611</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167033" cy="281808"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1348,7 +1803,7 @@
             <xdr:cNvPr id="4" name="文字方塊 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18419369-3CE7-46CC-B990-F4E3BC930EDA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8A7917-63CA-4D19-AABE-082CCECA6C2D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1356,7 +1811,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1251430" y="182213"/>
+              <a:off x="1238577" y="103611"/>
               <a:ext cx="167033" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1411,7 +1866,7 @@
             <xdr:cNvPr id="4" name="文字方塊 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18419369-3CE7-46CC-B990-F4E3BC930EDA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8A7917-63CA-4D19-AABE-082CCECA6C2D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1419,7 +1874,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1251430" y="182213"/>
+              <a:off x="1238577" y="103611"/>
               <a:ext cx="167033" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1465,9 +1920,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>24483</xdr:colOff>
+      <xdr:colOff>14676</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180706</xdr:rowOff>
+      <xdr:rowOff>102104</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="478849" cy="281808"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1477,7 +1932,7 @@
             <xdr:cNvPr id="5" name="文字方塊 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10FA3A3-372D-4B78-BB94-D0DCAF38316E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BDC4C5-A8FD-41B6-95FA-BE3B467F987D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1485,7 +1940,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1668457" y="180706"/>
+              <a:off x="1657739" y="102104"/>
               <a:ext cx="478849" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1552,7 +2007,7 @@
             <xdr:cNvPr id="5" name="文字方塊 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10FA3A3-372D-4B78-BB94-D0DCAF38316E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BDC4C5-A8FD-41B6-95FA-BE3B467F987D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1560,7 +2015,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1668457" y="180706"/>
+              <a:off x="1657739" y="102104"/>
               <a:ext cx="478849" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1611,23 +2066,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>48639</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>135753</xdr:rowOff>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1857982</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1910785</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>541793</xdr:rowOff>
+      <xdr:rowOff>477478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BD56C4-9BA1-47A3-8DED-19FBB0EE61C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298F99C5-D50A-4192-BE98-59BED353EA0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,7 +2104,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2957209" y="135753"/>
+          <a:off x="3716180" y="71438"/>
           <a:ext cx="1809343" cy="406040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1662,19 +2117,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>188068</xdr:colOff>
+      <xdr:colOff>180701</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>182972</xdr:rowOff>
+      <xdr:rowOff>104370</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="298287" cy="306174"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="文字方塊 7">
+            <xdr:cNvPr id="7" name="文字方塊 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F4DC2A-77ED-4343-8AAA-8F0A8C3630E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE44647-4E91-4FF2-AB0A-2119E78C8AA6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1682,7 +2137,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2380034" y="182972"/>
+              <a:off x="2371451" y="104370"/>
               <a:ext cx="298287" cy="306174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1792,10 +2247,10 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="文字方塊 7">
+            <xdr:cNvPr id="7" name="文字方塊 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F4DC2A-77ED-4343-8AAA-8F0A8C3630E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE44647-4E91-4FF2-AB0A-2119E78C8AA6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1803,7 +2258,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2380034" y="182972"/>
+              <a:off x="2371451" y="104370"/>
               <a:ext cx="298287" cy="306174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1842,6 +2297,256 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>(𝐴_𝑓 ) ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161651</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80558</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="393634" cy="334259"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="文字方塊 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606FFBD6-CEF3-49CC-AD93-A161A4995031}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3028676" y="80558"/>
+              <a:ext cx="393634" cy="334259"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="zh-TW" altLang="en-US" sz="1800" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐴</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑓</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:acc>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="文字方塊 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606FFBD6-CEF3-49CC-AD93-A161A4995031}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3028676" y="80558"/>
+              <a:ext cx="393634" cy="334259"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1800" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴_𝑓 ) ̅ </a:t>
               </a:r>
               <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800" i="1">
                 <a:solidFill>
@@ -2146,20 +2851,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2175,8 +2881,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2192,8 +2901,11 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2209,8 +2921,11 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2226,8 +2941,11 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2243,8 +2961,11 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2260,8 +2981,11 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2277,8 +3001,11 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2294,8 +3021,11 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2311,8 +3041,11 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2328,8 +3061,11 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2345,8 +3081,11 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2362,8 +3101,11 @@
       <c r="E13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2379,8 +3121,11 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2394,10 +3139,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2411,10 +3159,13 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2428,10 +3179,13 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2445,10 +3199,13 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2462,10 +3219,13 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2479,10 +3239,13 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2496,10 +3259,13 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2513,10 +3279,13 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2530,10 +3299,13 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2547,10 +3319,13 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2564,15 +3339,18 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2581,15 +3359,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2598,15 +3379,18 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2615,15 +3399,18 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2632,15 +3419,18 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -2649,15 +3439,18 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -2666,15 +3459,18 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -2683,15 +3479,18 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -2700,15 +3499,18 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -2717,15 +3519,18 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -2734,15 +3539,18 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -2751,15 +3559,18 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -2768,15 +3579,18 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2785,15 +3599,18 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2802,15 +3619,18 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2819,15 +3639,18 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2836,15 +3659,18 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -2853,15 +3679,18 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -2870,15 +3699,18 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -2887,15 +3719,18 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -2904,15 +3739,18 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -2921,15 +3759,18 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -2938,15 +3779,18 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -2955,15 +3799,18 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -2972,15 +3819,18 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2989,15 +3839,18 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3006,15 +3859,18 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -3023,15 +3879,18 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3040,15 +3899,18 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -3057,15 +3919,18 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -3074,15 +3939,18 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="F55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -3091,15 +3959,18 @@
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -3108,15 +3979,18 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -3125,15 +3999,18 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="F58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -3142,15 +4019,18 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -3159,15 +4039,18 @@
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -3176,10 +4059,13 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -3193,10 +4079,13 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="F62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -3210,10 +4099,13 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -3227,10 +4119,13 @@
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="F64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -3244,10 +4139,13 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="F65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -3261,10 +4159,13 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -3278,10 +4179,13 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3295,10 +4199,13 @@
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="F68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -3312,10 +4219,13 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="F69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -3329,10 +4239,13 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="F70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3346,10 +4259,13 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="F71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -3363,10 +4279,13 @@
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="F72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -3380,10 +4299,13 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -3397,10 +4319,13 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="F74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -3414,10 +4339,13 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -3431,10 +4359,13 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="F76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -3448,10 +4379,13 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="F77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -3465,10 +4399,13 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="F78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -3482,10 +4419,13 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="F79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -3499,10 +4439,13 @@
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="F80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -3516,10 +4459,13 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="F81" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -3533,10 +4479,13 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="F82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -3550,10 +4499,13 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -3567,10 +4519,13 @@
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -3584,15 +4539,18 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -3601,15 +4559,18 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -3618,15 +4579,18 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -3635,15 +4599,18 @@
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -3652,15 +4619,18 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="F89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -3669,15 +4639,18 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="F90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -3686,15 +4659,18 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="F91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -3703,15 +4679,18 @@
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -3720,15 +4699,18 @@
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="F93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
@@ -3737,15 +4719,18 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="F94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -3754,15 +4739,18 @@
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="F95" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -3771,15 +4759,18 @@
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="F96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -3788,15 +4779,18 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="F97" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -3805,15 +4799,18 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="F98" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -3822,15 +4819,18 @@
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="F99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3839,15 +4839,18 @@
         <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="F100" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -3856,15 +4859,18 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="F101" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -3873,15 +4879,18 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="F102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
@@ -3890,15 +4899,18 @@
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="F103" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
@@ -3907,15 +4919,18 @@
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="F104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
@@ -3924,15 +4939,18 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="F105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
@@ -3941,15 +4959,18 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="F106" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
@@ -3958,15 +4979,18 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
@@ -3975,15 +4999,18 @@
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
@@ -3992,15 +5019,18 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="F109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -4009,15 +5039,18 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="F110" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -4026,15 +5059,18 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -4043,15 +5079,18 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="F112" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -4060,15 +5099,18 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="F113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -4077,15 +5119,18 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="F114" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -4094,15 +5139,18 @@
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="F115" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -4111,15 +5159,18 @@
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="F116" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
@@ -4128,15 +5179,18 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="F117" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -4145,15 +5199,18 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="F118" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -4162,15 +5219,18 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="F119" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -4179,15 +5239,18 @@
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="F120" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -4196,10 +5259,13 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -4213,10 +5279,13 @@
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4230,10 +5299,13 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -4247,10 +5319,13 @@
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -4264,10 +5339,13 @@
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4281,10 +5359,13 @@
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -4298,10 +5379,13 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -4315,10 +5399,13 @@
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -4332,10 +5419,13 @@
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -4349,10 +5439,13 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -4366,10 +5459,13 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -4383,10 +5479,13 @@
         <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -4400,10 +5499,13 @@
         <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -4417,10 +5519,13 @@
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -4434,10 +5539,13 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -4451,10 +5559,13 @@
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -4468,10 +5579,13 @@
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -4485,10 +5599,13 @@
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -4502,10 +5619,13 @@
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4519,10 +5639,13 @@
         <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -4536,10 +5659,13 @@
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -4553,10 +5679,13 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -4570,10 +5699,13 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -4587,10 +5719,13 @@
         <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -4604,15 +5739,18 @@
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -4621,15 +5759,18 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -4638,15 +5779,18 @@
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -4655,15 +5799,18 @@
         <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -4672,15 +5819,18 @@
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -4689,15 +5839,18 @@
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
@@ -4706,15 +5859,18 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -4723,15 +5879,18 @@
         <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -4740,15 +5899,18 @@
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C154" t="s">
         <v>9</v>
@@ -4757,15 +5919,18 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
         <v>9</v>
@@ -4774,15 +5939,18 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C156" t="s">
         <v>9</v>
@@ -4791,15 +5959,18 @@
         <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C157" t="s">
         <v>9</v>
@@ -4808,15 +5979,18 @@
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -4825,15 +5999,18 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -4842,15 +6019,18 @@
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -4859,15 +6039,18 @@
         <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -4876,15 +6059,18 @@
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -4893,15 +6079,18 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C163" t="s">
         <v>8</v>
@@ -4910,15 +6099,18 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
@@ -4927,15 +6119,18 @@
         <v>6</v>
       </c>
       <c r="E164" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="F164" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C165" t="s">
         <v>8</v>
@@ -4944,15 +6139,18 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="F165" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
@@ -4961,15 +6159,18 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
@@ -4978,15 +6179,18 @@
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
@@ -4995,15 +6199,18 @@
         <v>6</v>
       </c>
       <c r="E168" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="F168" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
@@ -5012,15 +6219,18 @@
         <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="F169" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -5029,15 +6239,18 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="F170" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -5046,15 +6259,18 @@
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="F171" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -5063,15 +6279,18 @@
         <v>6</v>
       </c>
       <c r="E172" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="F172" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -5080,15 +6299,18 @@
         <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="F173" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
@@ -5097,15 +6319,18 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="F174" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C175" t="s">
         <v>8</v>
@@ -5114,15 +6339,18 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="F175" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C176" t="s">
         <v>8</v>
@@ -5131,15 +6359,18 @@
         <v>6</v>
       </c>
       <c r="E176" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="F176" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C177" t="s">
         <v>8</v>
@@ -5148,15 +6379,18 @@
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+      <c r="F177" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
@@ -5165,15 +6399,18 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+      <c r="F178" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -5182,15 +6419,18 @@
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="F179" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -5199,15 +6439,18 @@
         <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+      <c r="F180" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -5216,12 +6459,15 @@
         <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="F181" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B182" t="s">
         <v>1</v>
@@ -5233,12 +6479,15 @@
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+      <c r="F182" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B183" t="s">
         <v>1</v>
@@ -5250,12 +6499,15 @@
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="F183" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B184" t="s">
         <v>1</v>
@@ -5267,12 +6519,15 @@
         <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+      <c r="F184" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B185" t="s">
         <v>1</v>
@@ -5284,12 +6539,15 @@
         <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+      <c r="F185" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B186" t="s">
         <v>1</v>
@@ -5301,12 +6559,15 @@
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+      <c r="F186" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B187" t="s">
         <v>1</v>
@@ -5318,12 +6579,15 @@
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="F187" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B188" t="s">
         <v>1</v>
@@ -5335,12 +6599,15 @@
         <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+      <c r="F188" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B189" t="s">
         <v>1</v>
@@ -5352,12 +6619,15 @@
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="F189" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B190" t="s">
         <v>1</v>
@@ -5369,12 +6639,15 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="F190" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B191" t="s">
         <v>1</v>
@@ -5386,12 +6659,15 @@
         <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="F191" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B192" t="s">
         <v>1</v>
@@ -5403,12 +6679,15 @@
         <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="F192" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B193" t="s">
         <v>1</v>
@@ -5420,12 +6699,15 @@
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="F193" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
@@ -5437,12 +6719,15 @@
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+      <c r="F194" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B195" t="s">
         <v>10</v>
@@ -5454,12 +6739,15 @@
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="F195" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B196" t="s">
         <v>10</v>
@@ -5471,12 +6759,15 @@
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="F196" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
@@ -5488,12 +6779,15 @@
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="F197" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
@@ -5505,12 +6799,15 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="F198" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
@@ -5522,12 +6819,15 @@
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="F199" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B200" t="s">
         <v>10</v>
@@ -5539,12 +6839,15 @@
         <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+      <c r="F200" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B201" t="s">
         <v>10</v>
@@ -5556,12 +6859,15 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+      <c r="F201" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B202" t="s">
         <v>10</v>
@@ -5573,12 +6879,15 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+      <c r="F202" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B203" t="s">
         <v>10</v>
@@ -5590,12 +6899,15 @@
         <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="F203" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B204" t="s">
         <v>10</v>
@@ -5607,12 +6919,15 @@
         <v>6</v>
       </c>
       <c r="E204" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="F204" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B205" t="s">
         <v>10</v>
@@ -5624,15 +6939,18 @@
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="F205" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B206" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
@@ -5641,15 +6959,18 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+      <c r="F206" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B207" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
@@ -5658,15 +6979,18 @@
         <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="F207" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B208" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -5675,15 +6999,18 @@
         <v>6</v>
       </c>
       <c r="E208" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="F208" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B209" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -5692,15 +7019,18 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="F209" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B210" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C210" t="s">
         <v>8</v>
@@ -5709,15 +7039,18 @@
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="F210" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B211" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C211" t="s">
         <v>8</v>
@@ -5726,15 +7059,18 @@
         <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="F211" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C212" t="s">
         <v>8</v>
@@ -5743,15 +7079,18 @@
         <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="F212" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B213" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C213" t="s">
         <v>8</v>
@@ -5760,15 +7099,18 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="F213" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B214" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
@@ -5777,15 +7119,18 @@
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="F214" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B215" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C215" t="s">
         <v>9</v>
@@ -5794,15 +7139,18 @@
         <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+      <c r="F215" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B216" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
@@ -5811,15 +7159,18 @@
         <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="F216" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B217" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C217" t="s">
         <v>9</v>
@@ -5828,15 +7179,18 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="F217" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B218" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C218" t="s">
         <v>2</v>
@@ -5845,15 +7199,18 @@
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="F218" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B219" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
@@ -5862,15 +7219,18 @@
         <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="F219" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B220" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
@@ -5879,15 +7239,18 @@
         <v>6</v>
       </c>
       <c r="E220" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="F220" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B221" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
@@ -5896,15 +7259,18 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="F221" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B222" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C222" t="s">
         <v>8</v>
@@ -5913,15 +7279,18 @@
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+      <c r="F222" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B223" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C223" t="s">
         <v>8</v>
@@ -5930,15 +7299,18 @@
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="F223" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B224" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C224" t="s">
         <v>8</v>
@@ -5947,15 +7319,18 @@
         <v>6</v>
       </c>
       <c r="E224" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="F224" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B225" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C225" t="s">
         <v>8</v>
@@ -5964,15 +7339,18 @@
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B226" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C226" t="s">
         <v>9</v>
@@ -5981,15 +7359,18 @@
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B227" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
@@ -5998,15 +7379,18 @@
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B228" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
@@ -6015,15 +7399,18 @@
         <v>6</v>
       </c>
       <c r="E228" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
@@ -6032,15 +7419,18 @@
         <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="F229" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B230" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -6049,15 +7439,18 @@
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="F230" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B231" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
@@ -6066,15 +7459,18 @@
         <v>5</v>
       </c>
       <c r="E231" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="F231" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B232" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -6083,15 +7479,18 @@
         <v>6</v>
       </c>
       <c r="E232" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+      <c r="F232" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B233" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -6100,15 +7499,18 @@
         <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+      <c r="F233" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B234" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C234" t="s">
         <v>8</v>
@@ -6117,15 +7519,18 @@
         <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="F234" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B235" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
@@ -6134,15 +7539,18 @@
         <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="F235" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B236" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -6151,15 +7559,18 @@
         <v>6</v>
       </c>
       <c r="E236" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F236" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B237" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -6168,15 +7579,18 @@
         <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="F237" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B238" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
@@ -6185,15 +7599,18 @@
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+      <c r="F238" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B239" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
@@ -6202,15 +7619,18 @@
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="F239" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B240" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
@@ -6219,15 +7639,18 @@
         <v>6</v>
       </c>
       <c r="E240" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F240" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B241" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -6236,7 +7659,10 @@
         <v>7</v>
       </c>
       <c r="E241" t="s">
-        <v>241</v>
+        <v>468</v>
+      </c>
+      <c r="F241" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/Simulation results.xlsx
+++ b/Simulation results.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\越南旅程閱讀\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197E5137-8376-4C6E-8DA5-7EFBB249B04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6E9A94-D435-4CBC-830D-DD2CED30FE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$241</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="469">
   <si>
     <t>-1%</t>
   </si>
@@ -628,15 +631,9 @@
     <t>9.9504e-05</t>
   </si>
   <si>
-    <t>0.494597</t>
-  </si>
-  <si>
     <t>8.6229e-05</t>
   </si>
   <si>
-    <t>0.501298</t>
-  </si>
-  <si>
     <t>0.000100574</t>
   </si>
   <si>
@@ -1430,13 +1427,17 @@
   </si>
   <si>
     <t>0.000507487</t>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1450,6 +1451,12 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1472,8 +1479,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1501,8 +1509,8 @@
       <xdr:rowOff>81672</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214546" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
@@ -1584,7 +1592,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
@@ -1649,8 +1657,8 @@
       <xdr:rowOff>87533</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="400302" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
@@ -1725,7 +1733,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
@@ -1796,8 +1804,8 @@
       <xdr:rowOff>103611</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167033" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
@@ -1860,7 +1868,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
@@ -1925,8 +1933,8 @@
       <xdr:rowOff>102104</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="478849" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
@@ -2001,7 +2009,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
@@ -2066,16 +2074,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>101442</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68104</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1910785</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1877447</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>477478</xdr:rowOff>
+      <xdr:rowOff>491765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2104,7 +2112,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3716180" y="71438"/>
+          <a:off x="5721192" y="85725"/>
           <a:ext cx="1809343" cy="406040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2122,8 +2130,8 @@
       <xdr:rowOff>104370</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="298287" cy="306174"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="文字方塊 6">
@@ -2244,7 +2252,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="文字方塊 6">
@@ -2321,8 +2329,8 @@
       <xdr:rowOff>80558</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="393634" cy="334259"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="文字方塊 7">
@@ -2472,7 +2480,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="文字方塊 7">
@@ -2563,6 +2571,56 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>46915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1690687</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>495302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="圖片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB04FA6-82B7-439F-A54B-F162D1C67B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3843338" y="46915"/>
+          <a:ext cx="1543049" cy="448387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2851,21 +2909,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2881,11 +2942,15 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>F2*2.58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2904,8 +2969,12 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">F3*2.58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2924,8 +2993,12 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2944,8 +3017,12 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2964,8 +3041,12 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2984,8 +3065,12 @@
       <c r="F7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3004,8 +3089,12 @@
       <c r="F8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3024,8 +3113,12 @@
       <c r="F9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3044,8 +3137,12 @@
       <c r="F10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3064,8 +3161,12 @@
       <c r="F11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3084,8 +3185,12 @@
       <c r="F12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3104,8 +3209,12 @@
       <c r="F13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f>F13*2.58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3124,8 +3233,12 @@
       <c r="F14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>4.4153603999999994E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3144,8 +3257,12 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3.1833330000000001E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3164,8 +3281,12 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>3.0592866000000003E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3184,8 +3305,12 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3.2649125999999997E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3204,8 +3329,12 @@
       <c r="F18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>3.9001860000000001E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3224,8 +3353,12 @@
       <c r="F19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2.4981469200000003E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3244,8 +3377,12 @@
       <c r="F20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>2.8861943999999999E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3264,8 +3401,12 @@
       <c r="F21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>3.3159708000000002E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3284,8 +3425,12 @@
       <c r="F22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>3.5161014000000003E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3304,8 +3449,12 @@
       <c r="F23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>3.7022483999999996E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3324,8 +3473,12 @@
       <c r="F24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>2.6739635999999999E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3344,8 +3497,12 @@
       <c r="F25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>2.7894186E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3364,8 +3521,12 @@
       <c r="F26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>5.6696532000000003E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3384,8 +3545,12 @@
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>7.1308878000000004E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3404,8 +3569,12 @@
       <c r="F28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>6.7946106E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3424,8 +3593,12 @@
       <c r="F29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>6.3639054000000006E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3444,8 +3617,12 @@
       <c r="F30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>8.9038638000000009E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3464,8 +3641,12 @@
       <c r="F31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>6.6944034000000001E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -3484,8 +3665,12 @@
       <c r="F32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>8.3357993999999994E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3504,8 +3689,12 @@
       <c r="F33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>7.6117482000000002E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3524,8 +3713,12 @@
       <c r="F34" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>7.9630926000000008E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3544,8 +3737,12 @@
       <c r="F35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>6.7469322000000001E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3564,8 +3761,12 @@
       <c r="F36" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>5.3605434E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3584,8 +3785,12 @@
       <c r="F37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>8.4965849999999989E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -3604,8 +3809,12 @@
       <c r="F38" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>2.1059327400000001E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -3624,8 +3833,12 @@
       <c r="F39" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1.9711509600000001E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3644,8 +3857,12 @@
       <c r="F40" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1.72269438E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3664,8 +3881,12 @@
       <c r="F41" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1.7069125200000002E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3684,8 +3905,12 @@
       <c r="F42" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>2.31332088E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3704,8 +3929,12 @@
       <c r="F43" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>2.2171204200000002E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3724,8 +3953,12 @@
       <c r="F44" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>1.7661905999999999E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3744,8 +3977,12 @@
       <c r="F45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>1.39173198E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3764,8 +4001,12 @@
       <c r="F46" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>1.8944888400000001E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3784,8 +4025,12 @@
       <c r="F47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>2.2002756000000001E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3804,8 +4049,12 @@
       <c r="F48" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>2.0409089999999999E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3824,8 +4073,12 @@
       <c r="F49" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>1.4259969599999999E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3844,8 +4097,12 @@
       <c r="F50" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>8.6558483999999998E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3864,8 +4121,12 @@
       <c r="F51" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>1.1192917200000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3884,8 +4145,12 @@
       <c r="F52" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>1.33906386E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3904,8 +4169,12 @@
       <c r="F53" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>1.16616258E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3924,8 +4193,12 @@
       <c r="F54" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>1.6192002600000002E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -3944,8 +4217,12 @@
       <c r="F55" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>1.3232175E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3964,8 +4241,12 @@
       <c r="F56" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>1.67137302E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3984,8 +4265,12 @@
       <c r="F57" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>1.5920070599999999E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4004,8 +4289,12 @@
       <c r="F58" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <f>F58*2.58</f>
+        <v>2.0302948800000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -4024,8 +4313,12 @@
       <c r="F59" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>1.4919830400000002E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4044,8 +4337,12 @@
       <c r="F60" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>1.4992431600000002E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -4064,8 +4361,12 @@
       <c r="F61" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>2.2008870600000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -4084,8 +4385,12 @@
       <c r="F62" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>1.9781453400000001E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -4104,8 +4409,12 @@
       <c r="F63" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>2.6761566000000002E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -4124,8 +4433,12 @@
       <c r="F64" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>2.27237628E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -4144,8 +4457,12 @@
       <c r="F65" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>1.7833940400000001E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -4164,8 +4481,12 @@
       <c r="F66" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>2.2668163799999999E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -4184,8 +4505,12 @@
       <c r="F67" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="1">F67*2.58</f>
+        <v>2.3840283600000003E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -4204,8 +4529,12 @@
       <c r="F68" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>2.46759198E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -4224,8 +4553,12 @@
       <c r="F69" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>2.2416536400000003E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -4244,8 +4577,12 @@
       <c r="F70" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>2.42772582E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -4264,8 +4601,12 @@
       <c r="F71" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>2.7668178E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -4284,8 +4625,12 @@
       <c r="F72" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>2.3458237200000003E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -4304,8 +4649,12 @@
       <c r="F73" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>1.9356785400000003E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -4324,8 +4673,12 @@
       <c r="F74" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>6.1474692000000001E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -4344,8 +4697,12 @@
       <c r="F75" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>6.7758797999999994E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -4364,8 +4721,12 @@
       <c r="F76" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>7.112956800000001E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -4384,8 +4745,12 @@
       <c r="F77" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>5.3669159999999995E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -4404,8 +4769,12 @@
       <c r="F78" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>6.5472402000000006E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -4424,8 +4793,12 @@
       <c r="F79" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>8.0660088000000004E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -4444,8 +4817,12 @@
       <c r="F80" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>7.0807326E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -4464,8 +4841,12 @@
       <c r="F81" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>7.7752427999999994E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -4484,8 +4865,12 @@
       <c r="F82" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>9.0946805999999998E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -4504,8 +4889,12 @@
       <c r="F83" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>6.8484293999999994E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -4524,8 +4913,12 @@
       <c r="F84" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>6.1396001999999998E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -4544,8 +4937,12 @@
       <c r="F85" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>8.6151360000000007E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -4564,8 +4961,12 @@
       <c r="F86" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>1.4090799000000001E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -4584,8 +4985,12 @@
       <c r="F87" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>1.22035548E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -4604,8 +5009,12 @@
       <c r="F88" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>1.7837449200000001E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -4624,8 +5033,12 @@
       <c r="F89" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>1.5847392E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -4644,8 +5057,12 @@
       <c r="F90" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>1.2371770800000001E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -4664,8 +5081,12 @@
       <c r="F91" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>1.23048972E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -4684,8 +5105,12 @@
       <c r="F92" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>9.4916651999999994E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -4704,8 +5129,12 @@
       <c r="F93" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>1.30381332E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -4724,8 +5153,12 @@
       <c r="F94" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>1.3815384000000002E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -4744,8 +5177,12 @@
       <c r="F95" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>1.6804184999999998E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -4764,8 +5201,12 @@
       <c r="F96" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>1.00268604E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -4784,8 +5225,12 @@
       <c r="F97" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>2.2574200200000001E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -4804,8 +5249,12 @@
       <c r="F98" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>2.3129313000000001E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -4824,8 +5273,12 @@
       <c r="F99" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>2.3645957999999999E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -4844,8 +5297,12 @@
       <c r="F100" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>2.5190965200000003E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -4864,8 +5321,12 @@
       <c r="F101" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>3.5125152E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -4884,8 +5345,12 @@
       <c r="F102" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>2.2801085400000001E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -4904,8 +5369,12 @@
       <c r="F103" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>2.8984236000000003E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -4924,8 +5393,12 @@
       <c r="F104" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>2.2490350200000001E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -4944,8 +5417,12 @@
       <c r="F105" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>1.56484224E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -4964,8 +5441,12 @@
       <c r="F106" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>2.9217726000000001E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -4984,8 +5465,12 @@
       <c r="F107" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>2.5672032000000002E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -4998,14 +5483,18 @@
       <c r="D108" t="s">
         <v>6</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108">
+        <v>0.49459700000000001</v>
+      </c>
+      <c r="F108" t="s">
         <v>202</v>
       </c>
-      <c r="F108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>2.2247082000000001E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -5018,14 +5507,21 @@
       <c r="D109" t="s">
         <v>7</v>
       </c>
-      <c r="E109" t="s">
-        <v>204</v>
+      <c r="E109">
+        <v>0.49984000000000001</v>
       </c>
       <c r="F109" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>2.5948092000000004E-4</v>
+      </c>
+      <c r="H109" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -5039,13 +5535,17 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>3.8479926E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -5059,13 +5559,17 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>3.4331027999999996E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -5079,13 +5583,17 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>3.0507468000000001E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -5099,13 +5607,17 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>3.5629800000000001E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -5119,13 +5631,17 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>3.2286120000000004E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -5139,13 +5655,17 @@
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>3.9894282000000003E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -5159,13 +5679,17 @@
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>3.2651190000000001E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -5179,13 +5703,17 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>3.1301592000000005E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -5199,13 +5727,17 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>4.0567404000000002E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -5219,13 +5751,17 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>5.9134116000000001E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -5239,13 +5775,17 @@
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>3.9090095999999997E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -5259,13 +5799,17 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>4.8596622000000004E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -5279,13 +5823,17 @@
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>1.80131472E-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -5299,13 +5847,17 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>1.28898864E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -5319,13 +5871,17 @@
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>2.0426040600000003E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -5339,13 +5895,17 @@
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>1.8499683599999998E-5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -5359,13 +5919,17 @@
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>1.8629947800000001E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -5379,13 +5943,17 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>1.5405541199999999E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -5399,13 +5967,17 @@
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>2.0897664599999999E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -5419,13 +5991,17 @@
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="1"/>
+        <v>1.6693528799999998E-5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -5439,13 +6015,17 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="1"/>
+        <v>1.53267222E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -5459,13 +6039,17 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="2">F131*2.58</f>
+        <v>1.6678358400000001E-5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -5479,13 +6063,17 @@
         <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>2.1801051599999999E-5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -5499,13 +6087,17 @@
         <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>2.1957554400000002E-5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -5519,13 +6111,17 @@
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>5.2615746000000004E-5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -5539,13 +6135,17 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>4.7903376E-5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -5559,13 +6159,17 @@
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>5.2911929999999999E-5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -5579,13 +6183,17 @@
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>4.8237486000000002E-5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -5599,13 +6207,17 @@
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>6.5296446E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -5619,13 +6231,17 @@
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>4.6844802000000001E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -5639,13 +6255,17 @@
         <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>5.3521584000000009E-5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -5659,13 +6279,17 @@
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>6.3363768000000004E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -5679,13 +6303,17 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>3.7567380000000001E-5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -5699,13 +6327,17 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>3.9504702000000007E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -5719,13 +6351,17 @@
         <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>3.5139341999999999E-5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -5739,13 +6375,17 @@
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>3.8609183999999999E-5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -5759,13 +6399,17 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>1.17608526E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -5779,13 +6423,17 @@
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>9.7380035999999998E-5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -5799,13 +6447,17 @@
         <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>1.07591934E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -5819,13 +6471,17 @@
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>1.0969257000000001E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -5839,13 +6495,17 @@
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>1.4013915E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -5859,13 +6519,17 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>1.18392588E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -5879,13 +6543,17 @@
         <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>1.14993438E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -5899,13 +6567,17 @@
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>9.2635931999999999E-5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -5919,13 +6591,17 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="2"/>
+        <v>1.0511874600000001E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -5939,13 +6615,17 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="2"/>
+        <v>9.0495048000000005E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -5959,13 +6639,17 @@
         <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="2"/>
+        <v>1.7051710199999999E-4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -5979,13 +6663,17 @@
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="2"/>
+        <v>1.0653181200000001E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -5999,13 +6687,17 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="2"/>
+        <v>2.21088456E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -6019,13 +6711,17 @@
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="2"/>
+        <v>2.03627016E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -6039,13 +6735,17 @@
         <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="2"/>
+        <v>3.0798491999999998E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -6059,13 +6759,17 @@
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="2"/>
+        <v>2.3237002199999999E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -6079,13 +6783,17 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="2"/>
+        <v>2.2243831200000001E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -6099,13 +6807,17 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="2"/>
+        <v>2.41385574E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -6119,13 +6831,17 @@
         <v>6</v>
       </c>
       <c r="E164" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="2"/>
+        <v>2.9577636000000001E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -6139,13 +6855,17 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="2"/>
+        <v>2.3639791800000003E-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -6159,13 +6879,17 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="2"/>
+        <v>3.082068E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -6179,13 +6903,17 @@
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="2"/>
+        <v>2.2964141400000002E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -6199,13 +6927,17 @@
         <v>6</v>
       </c>
       <c r="E168" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="2"/>
+        <v>2.4382264199999999E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -6219,13 +6951,17 @@
         <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="2"/>
+        <v>3.2386223999999997E-4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -6239,13 +6975,17 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="2"/>
+        <v>3.3853727999999999E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -6259,13 +6999,17 @@
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="2"/>
+        <v>4.5136584000000002E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -6279,13 +7023,17 @@
         <v>6</v>
       </c>
       <c r="E172" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="2"/>
+        <v>4.8494712000000001E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -6299,13 +7047,17 @@
         <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="2"/>
+        <v>4.4202107999999997E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -6319,13 +7071,17 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="2"/>
+        <v>6.0179532000000004E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -6339,13 +7095,17 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="2"/>
+        <v>4.2628308000000002E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -6359,13 +7119,17 @@
         <v>6</v>
       </c>
       <c r="E176" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="G176">
+        <f>F176*2.58</f>
+        <v>6.3421818000000002E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -6379,13 +7143,17 @@
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="2"/>
+        <v>6.2229341999999995E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -6399,13 +7167,17 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="2"/>
+        <v>7.2978912000000006E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -6419,13 +7191,17 @@
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F179" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="2"/>
+        <v>7.2016056000000011E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -6439,13 +7215,17 @@
         <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F180" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="2"/>
+        <v>4.8969431999999996E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -6459,13 +7239,17 @@
         <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F181" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="2"/>
+        <v>6.1156578000000003E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -6479,13 +7263,17 @@
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F182" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="2"/>
+        <v>1.1982293999999999E-5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -6499,13 +7287,17 @@
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F183" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="2"/>
+        <v>8.6790941999999998E-6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>35</v>
       </c>
@@ -6519,13 +7311,17 @@
         <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F184" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="2"/>
+        <v>9.4159680000000001E-6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -6539,13 +7335,17 @@
         <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F185" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="2"/>
+        <v>1.1222613E-5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>35</v>
       </c>
@@ -6559,13 +7359,17 @@
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F186" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="2"/>
+        <v>6.973998E-6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>35</v>
       </c>
@@ -6579,13 +7383,17 @@
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F187" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="2"/>
+        <v>1.1937918000000001E-5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>35</v>
       </c>
@@ -6599,13 +7407,17 @@
         <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F188" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="2"/>
+        <v>7.2410279999999997E-6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>35</v>
       </c>
@@ -6619,13 +7431,17 @@
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F189" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="2"/>
+        <v>1.2147543000000001E-5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>35</v>
       </c>
@@ -6639,13 +7455,17 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F190" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="2"/>
+        <v>9.6963366000000004E-6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>35</v>
       </c>
@@ -6659,13 +7479,17 @@
         <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F191" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="2"/>
+        <v>8.6131494000000011E-6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -6679,13 +7503,17 @@
         <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F192" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="2"/>
+        <v>7.9802237999999994E-6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>35</v>
       </c>
@@ -6699,13 +7527,17 @@
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F193" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="2"/>
+        <v>1.2406652399999999E-5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>35</v>
       </c>
@@ -6719,13 +7551,17 @@
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F194" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="2"/>
+        <v>3.4079219999999999E-5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>35</v>
       </c>
@@ -6739,13 +7575,17 @@
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F195" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G241" si="3">F195*2.58</f>
+        <v>2.9366075999999998E-5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>35</v>
       </c>
@@ -6759,13 +7599,17 @@
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F196" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="3"/>
+        <v>3.5550594000000002E-5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>35</v>
       </c>
@@ -6779,13 +7623,17 @@
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F197" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="3"/>
+        <v>3.9369252000000005E-5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>35</v>
       </c>
@@ -6799,13 +7647,17 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F198" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="3"/>
+        <v>4.1238978000000003E-5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>35</v>
       </c>
@@ -6819,13 +7671,17 @@
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F199" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="3"/>
+        <v>4.1822573999999997E-5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>35</v>
       </c>
@@ -6839,13 +7695,17 @@
         <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="3"/>
+        <v>4.1369010000000004E-5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>35</v>
       </c>
@@ -6859,13 +7719,17 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F201" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="3"/>
+        <v>5.0217377999999998E-5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>35</v>
       </c>
@@ -6879,13 +7743,17 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F202" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="3"/>
+        <v>3.7633428000000001E-5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>35</v>
       </c>
@@ -6899,13 +7767,17 @@
         <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F203" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="3"/>
+        <v>4.3861548000000005E-5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>35</v>
       </c>
@@ -6919,13 +7791,17 @@
         <v>6</v>
       </c>
       <c r="E204" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F204" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="3"/>
+        <v>3.8525592000000001E-5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>35</v>
       </c>
@@ -6939,13 +7815,17 @@
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F205" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="3"/>
+        <v>4.2168551999999997E-5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>35</v>
       </c>
@@ -6959,13 +7839,17 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F206" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="3"/>
+        <v>5.7672288000000001E-5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>35</v>
       </c>
@@ -6979,13 +7863,17 @@
         <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F207" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="3"/>
+        <v>1.11943362E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>35</v>
       </c>
@@ -6999,13 +7887,17 @@
         <v>6</v>
       </c>
       <c r="E208" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F208" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="3"/>
+        <v>9.6961043999999996E-5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>35</v>
       </c>
@@ -7019,13 +7911,17 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F209" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="3"/>
+        <v>9.4216181999999998E-5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>35</v>
       </c>
@@ -7039,13 +7935,17 @@
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="3"/>
+        <v>9.9235056000000001E-5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -7059,13 +7959,17 @@
         <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F211" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="3"/>
+        <v>9.4800036000000006E-5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>35</v>
       </c>
@@ -7079,13 +7983,17 @@
         <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F212" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="3"/>
+        <v>1.0613397600000001E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>35</v>
       </c>
@@ -7099,13 +8007,17 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F213" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="3"/>
+        <v>8.224781999999999E-5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>35</v>
       </c>
@@ -7119,13 +8031,17 @@
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F214" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="3"/>
+        <v>9.3910194000000011E-5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>35</v>
       </c>
@@ -7139,13 +8055,17 @@
         <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F215" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="3"/>
+        <v>8.0257607999999997E-5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>35</v>
       </c>
@@ -7159,13 +8079,17 @@
         <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F216" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="3"/>
+        <v>1.07229444E-4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>35</v>
       </c>
@@ -7179,13 +8103,17 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F217" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="3"/>
+        <v>1.0551864600000001E-4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>35</v>
       </c>
@@ -7199,13 +8127,17 @@
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F218" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="3"/>
+        <v>1.9758362399999998E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>35</v>
       </c>
@@ -7219,13 +8151,17 @@
         <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F219" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="3"/>
+        <v>2.8082783999999999E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>35</v>
       </c>
@@ -7239,13 +8175,17 @@
         <v>6</v>
       </c>
       <c r="E220" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F220" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="3"/>
+        <v>2.4338301000000003E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>35</v>
       </c>
@@ -7259,13 +8199,17 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F221" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="3"/>
+        <v>2.5457892E-4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>35</v>
       </c>
@@ -7279,13 +8223,17 @@
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F222" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="3"/>
+        <v>2.32066098E-4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>35</v>
       </c>
@@ -7299,13 +8247,17 @@
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F223" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="3"/>
+        <v>2.2019345400000001E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>35</v>
       </c>
@@ -7319,13 +8271,17 @@
         <v>6</v>
       </c>
       <c r="E224" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F224" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="3"/>
+        <v>1.9265324400000001E-4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>35</v>
       </c>
@@ -7339,13 +8295,17 @@
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F225" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="3"/>
+        <v>2.8341042E-4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>35</v>
       </c>
@@ -7359,13 +8319,17 @@
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F226" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="3"/>
+        <v>2.9678772000000001E-4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>35</v>
       </c>
@@ -7379,13 +8343,17 @@
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F227" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="3"/>
+        <v>1.85323206E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>35</v>
       </c>
@@ -7399,13 +8367,17 @@
         <v>6</v>
       </c>
       <c r="E228" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F228" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="3"/>
+        <v>2.4891504600000003E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>35</v>
       </c>
@@ -7419,13 +8391,17 @@
         <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F229" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="3"/>
+        <v>3.1256958000000002E-4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>35</v>
       </c>
@@ -7439,13 +8415,17 @@
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F230" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="3"/>
+        <v>1.0340898E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>35</v>
       </c>
@@ -7459,13 +8439,17 @@
         <v>5</v>
       </c>
       <c r="E231" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="3"/>
+        <v>1.0506714600000001E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>35</v>
       </c>
@@ -7479,13 +8463,17 @@
         <v>6</v>
       </c>
       <c r="E232" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F232" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="3"/>
+        <v>8.0527476000000003E-4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>35</v>
       </c>
@@ -7499,13 +8487,17 @@
         <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F233" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="3"/>
+        <v>1.0384190400000001E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>35</v>
       </c>
@@ -7519,13 +8511,17 @@
         <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F234" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="3"/>
+        <v>7.1577456000000001E-4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>35</v>
       </c>
@@ -7539,13 +8535,17 @@
         <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="3"/>
+        <v>1.0785741599999999E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>35</v>
       </c>
@@ -7559,13 +8559,17 @@
         <v>6</v>
       </c>
       <c r="E236" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="3"/>
+        <v>1.0534011000000001E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>35</v>
       </c>
@@ -7579,13 +8583,17 @@
         <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F237" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="3"/>
+        <v>1.0888193399999999E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>35</v>
       </c>
@@ -7599,13 +8607,17 @@
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="3"/>
+        <v>1.11941298E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>35</v>
       </c>
@@ -7619,13 +8631,17 @@
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F239" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="3"/>
+        <v>1.4450115600000001E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>35</v>
       </c>
@@ -7639,13 +8655,17 @@
         <v>6</v>
       </c>
       <c r="E240" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="3"/>
+        <v>1.53608298E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>35</v>
       </c>
@@ -7659,10 +8679,14 @@
         <v>7</v>
       </c>
       <c r="E241" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F241" t="s">
-        <v>469</v>
+        <v>467</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="3"/>
+        <v>1.3093164600000002E-3</v>
       </c>
     </row>
   </sheetData>
